--- a/Vault/addInfoDTU/environmental_impact_version_28032013.xlsx
+++ b/Vault/addInfoDTU/environmental_impact_version_28032013.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="418">
   <si>
     <t>1BUTENE</t>
   </si>
@@ -1304,6 +1304,9 @@
   </si>
   <si>
     <t>Tcrit</t>
+  </si>
+  <si>
+    <t>R245fa</t>
   </si>
 </sst>
 </file>
@@ -2586,9 +2589,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D108" sqref="D108"/>
+      <selection pane="topRight" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10341,11 +10344,11 @@
         <v>153</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D100" s="16" t="e">
+        <v>417</v>
+      </c>
+      <c r="D100" s="16">
         <f>[1]!Props1(C100,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>427.16</v>
       </c>
       <c r="E100" s="16" t="s">
         <v>259</v>

--- a/Vault/addInfoDTU/environmental_impact_version_28032013.xlsx
+++ b/Vault/addInfoDTU/environmental_impact_version_28032013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="22980" windowHeight="9795"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="10005" windowHeight="5835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="420">
   <si>
     <t>1BUTENE</t>
   </si>
@@ -1307,6 +1307,12 @@
   </si>
   <si>
     <t>R245fa</t>
+  </si>
+  <si>
+    <t>OrthoHydrogen</t>
+  </si>
+  <si>
+    <t>ParaHydrogen</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1612,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1737,6 +1743,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2035,7 +2047,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2181,6 +2193,13 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2589,17 +2608,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="825" topLeftCell="A56" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="63.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="4" customWidth="1"/>
+    <col min="4" max="4" width="101.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="27.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -2644,20 +2663,20 @@
       <c r="H1" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
       <c r="L1" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
       <c r="Q1" s="29" t="s">
         <v>124</v>
       </c>
@@ -3226,9 +3245,9 @@
       <c r="C9" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="D9" s="16" t="e">
+      <c r="D9" s="16">
         <f>[1]!Props1(C9,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>562.02</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="11" t="s">
@@ -3460,9 +3479,9 @@
         <v>166</v>
       </c>
       <c r="C12" s="16"/>
-      <c r="D12" s="16" t="e">
+      <c r="D12" s="16" t="str">
         <f>[1]!Props1(C12,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>CoolProp error: Your fluid name [] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16" t="s">
@@ -3612,9 +3631,9 @@
         <v>167</v>
       </c>
       <c r="C14" s="16"/>
-      <c r="D14" s="16" t="e">
+      <c r="D14" s="16" t="str">
         <f>[1]!Props1(C14,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>CoolProp error: Your fluid name [] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="11" t="s">
@@ -3688,9 +3707,9 @@
         <v>168</v>
       </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="16" t="e">
+      <c r="D15" s="16" t="str">
         <f>[1]!Props1(C15,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>CoolProp error: Your fluid name [] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16">
@@ -3764,9 +3783,9 @@
         <v>169</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="16" t="e">
+      <c r="D16" s="16" t="str">
         <f>[1]!Props1(C16,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>CoolProp error: Your fluid name [] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16">
@@ -3840,9 +3859,9 @@
         <v>170</v>
       </c>
       <c r="C17" s="16"/>
-      <c r="D17" s="16" t="e">
+      <c r="D17" s="16" t="str">
         <f>[1]!Props1(C17,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>CoolProp error: Your fluid name [] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="11" t="s">
@@ -4308,9 +4327,9 @@
       <c r="C23" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="D23" s="16" t="e">
+      <c r="D23" s="16">
         <f>[1]!Props1(C23,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>398.3</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="11" t="s">
@@ -4386,9 +4405,9 @@
       <c r="C24" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="D24" s="16" t="e">
+      <c r="D24" s="16" t="str">
         <f>[1]!Props1(C24,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>CoolProp error: Your fluid name [Deuterium] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16">
@@ -4464,9 +4483,9 @@
       <c r="C25" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="D25" s="16" t="e">
+      <c r="D25" s="16" t="str">
         <f>[1]!Props1(C25,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>CoolProp error: Your fluid name [DeuteriumOxide] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16" t="s">
@@ -5090,7 +5109,7 @@
       </c>
       <c r="D33" s="16">
         <f>[1]!Props1(C33,"Tcrit")</f>
-        <v>513.9</v>
+        <v>514.71</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="16" t="s">
@@ -5246,9 +5265,9 @@
       <c r="C35" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="D35" s="16" t="e">
+      <c r="D35" s="16" t="str">
         <f>[1]!Props1(C35,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>CoolProp error: Your fluid name [Fluorine] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="16" t="s">
@@ -5632,10 +5651,7 @@
         <v>112</v>
       </c>
       <c r="C40" s="16"/>
-      <c r="D40" s="16" t="e">
-        <f>[1]!Props1(C40,"Tcrit")</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16" t="s">
         <v>112</v>
@@ -6012,7 +6028,7 @@
       </c>
       <c r="D45" s="16">
         <f>[1]!Props1(C45,"Tcrit")</f>
-        <v>407.81</v>
+        <v>407.81700000000001</v>
       </c>
       <c r="E45" s="16"/>
       <c r="F45" s="11" t="s">
@@ -6546,9 +6562,9 @@
       <c r="C52" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="D52" s="16" t="e">
+      <c r="D52" s="16" t="str">
         <f>[1]!Props1(C52,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>CoolProp error: Your fluid name [Methanol] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
       </c>
       <c r="E52" s="16"/>
       <c r="F52" s="16" t="s">
@@ -6624,9 +6640,9 @@
       <c r="C53" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="D53" s="16" t="e">
+      <c r="D53" s="16">
         <f>[1]!Props1(C53,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>799</v>
       </c>
       <c r="E53" s="16"/>
       <c r="F53" s="14" t="s">
@@ -7170,9 +7186,9 @@
       <c r="C60" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="D60" s="16" t="e">
+      <c r="D60" s="16">
         <f>[1]!Props1(C60,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>44.491799999999998</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>231</v>
@@ -7328,9 +7344,9 @@
       <c r="C62" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="D62" s="16" t="e">
+      <c r="D62" s="16" t="str">
         <f>[1]!Props1(C62,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>CoolProp error: Your fluid name [NitrogenTrifluoride] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
       </c>
       <c r="E62" s="16"/>
       <c r="F62" s="16">
@@ -7636,11 +7652,11 @@
         <v>159</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D66" s="16" t="e">
+        <v>418</v>
+      </c>
+      <c r="D66" s="16">
         <f>[1]!Props1(C66,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>33.22</v>
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="16" t="s">
@@ -7792,11 +7808,11 @@
         <v>158</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D68" s="16" t="e">
+        <v>419</v>
+      </c>
+      <c r="D68" s="16">
         <f>[1]!Props1(C68,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>32.938000000000002</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="16" t="s">
@@ -8110,9 +8126,9 @@
       <c r="C72" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="D72" s="16" t="e">
+      <c r="D72" s="16" t="str">
         <f>[1]!Props1(C72,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>CoolProp error: Your fluid name [Propyne] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="11" t="s">
@@ -8178,85 +8194,85 @@
       <c r="Z72" s="7"/>
       <c r="AA72" s="7"/>
     </row>
-    <row r="73" spans="1:27">
-      <c r="A73" s="16" t="s">
+    <row r="73" spans="1:27" s="55" customFormat="1">
+      <c r="A73" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="D73" s="16" t="e">
+      <c r="D73" s="53">
         <f>[1]!Props1(C73,"Tcrit")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E73" s="16" t="s">
+        <v>471.06</v>
+      </c>
+      <c r="E73" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F73" s="53">
         <v>6730</v>
       </c>
-      <c r="G73" s="16">
+      <c r="G73" s="53">
         <v>4750</v>
       </c>
-      <c r="H73" s="16">
+      <c r="H73" s="53">
         <v>1620</v>
       </c>
-      <c r="I73" s="16">
+      <c r="I73" s="53">
         <v>1</v>
       </c>
-      <c r="J73" s="16">
+      <c r="J73" s="53">
         <v>1</v>
       </c>
-      <c r="K73" s="16">
+      <c r="K73" s="53">
         <v>1</v>
       </c>
-      <c r="L73" s="10">
+      <c r="L73" s="53">
         <v>541</v>
       </c>
-      <c r="M73" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="N73" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="O73" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="P73" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q73" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="R73" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="S73" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="T73" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="U73" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="V73" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="W73" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="X73" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y73" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z73" s="7"/>
-      <c r="AA73" s="7"/>
+      <c r="M73" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="N73" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="O73" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="P73" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q73" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="R73" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="S73" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="T73" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="U73" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="V73" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="W73" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="X73" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y73" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z73" s="54"/>
+      <c r="AA73" s="54"/>
     </row>
     <row r="74" spans="1:27">
       <c r="A74" s="16" t="s">
@@ -8268,9 +8284,9 @@
       <c r="C74" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D74" s="16" t="e">
+      <c r="D74" s="16" t="str">
         <f>[1]!Props1(C74,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>CoolProp error: Your fluid name [R113] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>236</v>
@@ -8348,9 +8364,9 @@
       <c r="C75" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D75" s="16" t="e">
+      <c r="D75" s="16" t="str">
         <f>[1]!Props1(C75,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>CoolProp error: Your fluid name [R114] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>237</v>
@@ -8428,9 +8444,9 @@
       <c r="C76" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D76" s="16" t="e">
+      <c r="D76" s="16" t="str">
         <f>[1]!Props1(C76,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>CoolProp error: Your fluid name [R115] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>238</v>
@@ -8588,9 +8604,9 @@
       <c r="C78" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D78" s="16" t="e">
+      <c r="D78" s="16" t="str">
         <f>[1]!Props1(C78,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>CoolProp error: Your fluid name [R12] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
       </c>
       <c r="E78" s="16" t="s">
         <v>240</v>
@@ -8908,9 +8924,9 @@
       <c r="C82" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D82" s="16" t="e">
+      <c r="D82" s="16">
         <f>[1]!Props1(C82,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>395.42500000000001</v>
       </c>
       <c r="E82" s="16" t="s">
         <v>243</v>
@@ -8988,9 +9004,9 @@
       <c r="C83" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D83" s="16" t="e">
+      <c r="D83" s="16">
         <f>[1]!Props1(C83,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>339.173</v>
       </c>
       <c r="E83" s="16" t="s">
         <v>244</v>
@@ -9068,9 +9084,9 @@
       <c r="C84" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D84" s="16" t="e">
+      <c r="D84" s="16" t="str">
         <f>[1]!Props1(C84,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>CoolProp error: Your fluid name [R13] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
       </c>
       <c r="E84" s="16" t="s">
         <v>245</v>
@@ -9228,9 +9244,9 @@
       <c r="C86" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D86" s="16" t="e">
+      <c r="D86" s="16" t="str">
         <f>[1]!Props1(C86,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>CoolProp error: Your fluid name [R14] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>247</v>
@@ -9308,9 +9324,9 @@
       <c r="C87" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D87" s="16" t="e">
+      <c r="D87" s="16" t="str">
         <f>[1]!Props1(C87,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>CoolProp error: Your fluid name [R141B] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
       </c>
       <c r="E87" s="16" t="s">
         <v>248</v>
@@ -9388,9 +9404,9 @@
       <c r="C88" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D88" s="16" t="e">
+      <c r="D88" s="16" t="str">
         <f>[1]!Props1(C88,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>CoolProp error: Your fluid name [R142B] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>249</v>
@@ -9550,7 +9566,7 @@
       </c>
       <c r="D90" s="16">
         <f>[1]!Props1(C90,"Tcrit")</f>
-        <v>386.41</v>
+        <v>386.411</v>
       </c>
       <c r="E90" s="16" t="s">
         <v>251</v>
@@ -9628,9 +9644,9 @@
       <c r="C91" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D91" s="16" t="e">
+      <c r="D91" s="16">
         <f>[1]!Props1(C91,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>375.25</v>
       </c>
       <c r="E91" s="16"/>
       <c r="F91" s="16" t="s">
@@ -9706,9 +9722,9 @@
       <c r="C92" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D92" s="16" t="e">
+      <c r="D92" s="16" t="str">
         <f>[1]!Props1(C92,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>CoolProp error: Your fluid name [R21] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>252</v>
@@ -10266,9 +10282,9 @@
       <c r="C99" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D99" s="16" t="e">
+      <c r="D99" s="16" t="str">
         <f>[1]!Props1(C99,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>CoolProp error: Your fluid name [R245CA] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>258</v>
@@ -10506,9 +10522,9 @@
       <c r="C102" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D102" s="16" t="e">
+      <c r="D102" s="16">
         <f>[1]!Props1(C102,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>460</v>
       </c>
       <c r="E102" s="16" t="s">
         <v>261</v>
@@ -10986,9 +11002,9 @@
       <c r="C108" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D108" s="16" t="e">
+      <c r="D108" s="16" t="str">
         <f>[1]!Props1(C108,"Tcrit")</f>
-        <v>#VALUE!</v>
+        <v>CoolProp error: Your fluid name [RC318] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
       </c>
       <c r="E108" s="16" t="s">
         <v>263</v>

--- a/Vault/addInfoDTU/environmental_impact_version_28032013.xlsx
+++ b/Vault/addInfoDTU/environmental_impact_version_28032013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="10005" windowHeight="5835"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="10005" windowHeight="5775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2609,8 +2609,8 @@
   <dimension ref="A1:AA146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="825" topLeftCell="A56" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
+      <pane ySplit="825" topLeftCell="A41" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Vault/addInfoDTU/environmental_impact_version_28032013.xlsx
+++ b/Vault/addInfoDTU/environmental_impact_version_28032013.xlsx
@@ -24,7 +24,7 @@
     <author>Belli</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="421">
   <si>
     <t>1BUTENE</t>
   </si>
@@ -1255,9 +1255,6 @@
     <t>Nitrogen</t>
   </si>
   <si>
-    <t>Nonane</t>
-  </si>
-  <si>
     <t>Octane</t>
   </si>
   <si>
@@ -1313,6 +1310,12 @@
   </si>
   <si>
     <t>ParaHydrogen</t>
+  </si>
+  <si>
+    <t>n-Nonane</t>
+  </si>
+  <si>
+    <t>CAS code</t>
   </si>
 </sst>
 </file>
@@ -2307,6 +2310,7 @@
       <sheetName val="Sheet3"/>
     </sheetNames>
     <definedNames>
+      <definedName name="CAS_code"/>
       <definedName name="Props1"/>
     </definedNames>
     <sheetDataSet>
@@ -2606,39 +2610,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA146"/>
+  <dimension ref="A1:AB146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="825" topLeftCell="A41" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <pane ySplit="825" activePane="bottomLeft"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="63.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="4" customWidth="1"/>
-    <col min="4" max="4" width="101.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" customWidth="1"/>
-    <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="27.28515625" customWidth="1"/>
-    <col min="21" max="21" width="27.28515625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="27.28515625" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.7109375" customWidth="1"/>
+    <col min="3" max="4" width="20" style="4" customWidth="1"/>
+    <col min="5" max="5" width="56.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="27.28515625" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="27.28515625" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="47" t="s">
         <v>288</v>
       </c>
@@ -2649,63 +2654,66 @@
         <v>356</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E1" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="F1" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="H1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="I1" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="J1" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="56"/>
       <c r="K1" s="56"/>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="56"/>
+      <c r="M1" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="N1" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="N1" s="57"/>
       <c r="O1" s="57"/>
       <c r="P1" s="57"/>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="57"/>
+      <c r="R1" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="S1" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="T1" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="U1" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="V1" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="W1" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="X1" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="X1" s="31" t="s">
+      <c r="Y1" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="Y1" s="32" t="s">
+      <c r="Z1" s="32" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:28">
       <c r="A2" s="47" t="s">
         <v>299</v>
       </c>
@@ -2713,41 +2721,39 @@
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="24" t="s">
-        <v>327</v>
-      </c>
+      <c r="F2" s="16"/>
       <c r="G2" s="24" t="s">
         <v>327</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="J2" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="K2" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="L2" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="M2" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="N2" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="O2" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="P2" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="Q2" s="25" t="s">
         <v>331</v>
-      </c>
-      <c r="Q2" s="26" t="s">
-        <v>303</v>
       </c>
       <c r="R2" s="26" t="s">
         <v>303</v>
@@ -2765,16 +2771,19 @@
         <v>303</v>
       </c>
       <c r="W2" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="X2" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="X2" s="26" t="s">
+      <c r="Y2" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Z2" s="26" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="3" customFormat="1">
+    <row r="3" spans="1:28" s="3" customFormat="1">
       <c r="A3" s="47" t="s">
         <v>300</v>
       </c>
@@ -2782,9 +2791,7 @@
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="15" t="s">
-        <v>221</v>
-      </c>
+      <c r="F3" s="16"/>
       <c r="G3" s="15" t="s">
         <v>221</v>
       </c>
@@ -2792,7 +2799,7 @@
         <v>221</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>222</v>
@@ -2800,11 +2807,11 @@
       <c r="K3" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="M3" s="21" t="s">
         <v>276</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>219</v>
       </c>
       <c r="N3" s="15" t="s">
         <v>219</v>
@@ -2816,7 +2823,7 @@
         <v>219</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R3" s="15" t="s">
         <v>220</v>
@@ -2833,15 +2840,18 @@
       <c r="V3" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="W3" s="10"/>
-      <c r="X3" s="15" t="s">
+      <c r="W3" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="Y3" s="15" t="s">
+      <c r="Z3" s="15" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:28">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
@@ -2851,22 +2861,23 @@
       <c r="C4" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="16" t="str">
+        <f>[1]!CAS_code(C4)</f>
+        <v>106-98-9</v>
+      </c>
+      <c r="E4" s="16">
         <f>[1]!Props1(C4,"Tcrit")</f>
         <v>419.29</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="F4" s="16"/>
       <c r="G4" s="11" t="s">
         <v>113</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>112</v>
+      <c r="I4" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>112</v>
@@ -2874,24 +2885,24 @@
       <c r="K4" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" s="10">
         <v>2.59</v>
       </c>
-      <c r="M4" s="10">
+      <c r="N4" s="10">
         <v>0.5</v>
       </c>
-      <c r="N4" s="10">
+      <c r="O4" s="10">
         <v>1</v>
       </c>
-      <c r="O4" s="10">
+      <c r="P4" s="10">
         <v>0.98299999999999998</v>
       </c>
-      <c r="P4" s="10">
+      <c r="Q4" s="10">
         <v>1.079</v>
       </c>
-      <c r="Q4" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R4" s="10" t="s">
         <v>112</v>
       </c>
@@ -2916,10 +2927,13 @@
       <c r="Y4" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="7"/>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="Z4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="7"/>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
@@ -2929,21 +2943,22 @@
       <c r="C5" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="16" t="str">
+        <f>[1]!CAS_code(C5)</f>
+        <v>67-64-1</v>
+      </c>
+      <c r="E5" s="16">
         <f>[1]!Props1(C5,"Tcrit")</f>
         <v>508.1</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="16">
+      <c r="F5" s="16"/>
+      <c r="G5" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="16">
         <v>0.5</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="16" t="s">
         <v>112</v>
       </c>
       <c r="J5" s="10" t="s">
@@ -2952,24 +2967,24 @@
       <c r="K5" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" s="10">
         <v>1.46</v>
       </c>
-      <c r="M5" s="10">
+      <c r="N5" s="10">
         <v>0.1</v>
       </c>
-      <c r="N5" s="10">
+      <c r="O5" s="10">
         <v>0.2</v>
       </c>
-      <c r="O5" s="10">
+      <c r="P5" s="10">
         <v>0.16</v>
       </c>
-      <c r="P5" s="14">
+      <c r="Q5" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="Q5" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R5" s="10" t="s">
         <v>112</v>
       </c>
@@ -2985,19 +3000,22 @@
       <c r="V5" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="W5" s="15">
+      <c r="W5" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="X5" s="15">
         <v>13888.888888888889</v>
       </c>
-      <c r="X5" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="Y5" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="7"/>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="Z5" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="7"/>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="16" t="s">
         <v>2</v>
       </c>
@@ -3007,21 +3025,22 @@
       <c r="C6" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="16" t="str">
+        <f>[1]!CAS_code(C6)</f>
+        <v>N/A</v>
+      </c>
+      <c r="E6" s="16">
         <f>[1]!Props1(C6,"Tcrit")</f>
         <v>132.53059999999999</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
-        <v>112</v>
-      </c>
+      <c r="F6" s="16"/>
       <c r="G6" s="16" t="s">
         <v>112</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="16" t="s">
         <v>112</v>
       </c>
       <c r="J6" s="10" t="s">
@@ -3031,10 +3050,10 @@
         <v>112</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>112</v>
@@ -3042,10 +3061,10 @@
       <c r="O6" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P6" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q6" s="10" t="s">
+      <c r="P6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q6" s="16" t="s">
         <v>112</v>
       </c>
       <c r="R6" s="10" t="s">
@@ -3072,10 +3091,13 @@
       <c r="Y6" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="7"/>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="Z6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="7"/>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
@@ -3085,15 +3107,16 @@
       <c r="C7" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="16" t="str">
+        <f>[1]!CAS_code(C7)</f>
+        <v>7664-41-7</v>
+      </c>
+      <c r="E7" s="16">
         <f>[1]!Props1(C7,"Tcrit")</f>
         <v>405.4</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="F7" s="16" t="s">
         <v>223</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>111</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>111</v>
@@ -3101,8 +3124,8 @@
       <c r="H7" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>112</v>
+      <c r="I7" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>112</v>
@@ -3111,10 +3134,10 @@
         <v>112</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>112</v>
@@ -3122,12 +3145,12 @@
       <c r="O7" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="19">
         <v>0.1</v>
       </c>
-      <c r="Q7" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R7" s="10" t="s">
         <v>112</v>
       </c>
@@ -3143,19 +3166,22 @@
       <c r="V7" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="W7" s="19">
+      <c r="W7" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="X7" s="19">
         <v>1000000</v>
       </c>
-      <c r="X7" s="15">
+      <c r="Y7" s="15">
         <v>0.35</v>
       </c>
-      <c r="Y7" s="15">
+      <c r="Z7" s="15">
         <v>1.6</v>
       </c>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="7"/>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="7"/>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
@@ -3165,15 +3191,16 @@
       <c r="C8" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="16" t="str">
+        <f>[1]!CAS_code(C8)</f>
+        <v>7440-37-1</v>
+      </c>
+      <c r="E8" s="16">
         <f>[1]!Props1(C8,"Tcrit")</f>
         <v>150.68700000000001</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="F8" s="16" t="s">
         <v>224</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0</v>
       </c>
       <c r="G8" s="16">
         <v>0</v>
@@ -3181,8 +3208,8 @@
       <c r="H8" s="16">
         <v>0</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>112</v>
+      <c r="I8" s="16">
+        <v>0</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>112</v>
@@ -3191,10 +3218,10 @@
         <v>112</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>112</v>
@@ -3202,10 +3229,10 @@
       <c r="O8" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P8" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q8" s="10" t="s">
+      <c r="P8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q8" s="16" t="s">
         <v>112</v>
       </c>
       <c r="R8" s="10" t="s">
@@ -3232,10 +3259,13 @@
       <c r="Y8" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="7"/>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="Z8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="7"/>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
@@ -3245,22 +3275,23 @@
       <c r="C9" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="16" t="str">
+        <f>[1]!CAS_code(C9)</f>
+        <v>71-43-2</v>
+      </c>
+      <c r="E9" s="16">
         <f>[1]!Props1(C9,"Tcrit")</f>
         <v>562.02</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="F9" s="16"/>
       <c r="G9" s="11" t="s">
         <v>113</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>112</v>
+      <c r="I9" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>112</v>
@@ -3268,52 +3299,55 @@
       <c r="K9" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" s="17">
         <v>3.65</v>
       </c>
-      <c r="M9" s="10">
+      <c r="N9" s="10">
         <v>0.4</v>
       </c>
-      <c r="N9" s="10">
+      <c r="O9" s="10">
         <v>0.2</v>
       </c>
-      <c r="O9" s="10">
+      <c r="P9" s="10">
         <v>0.318</v>
       </c>
-      <c r="P9" s="19">
+      <c r="Q9" s="19">
         <v>0.218</v>
       </c>
-      <c r="Q9" s="19">
+      <c r="R9" s="19">
         <v>1899.9092230731821</v>
       </c>
-      <c r="R9" s="19">
+      <c r="S9" s="19">
         <v>8.3681804694611103E-5</v>
       </c>
-      <c r="S9" s="19">
+      <c r="T9" s="19">
         <v>2.8007861978061811E-3</v>
       </c>
-      <c r="T9" s="19">
+      <c r="U9" s="19">
         <v>6.3605716747185514E-5</v>
       </c>
-      <c r="U9" s="19">
+      <c r="V9" s="19">
         <v>1.3315203579224711E-3</v>
       </c>
-      <c r="V9" s="19">
+      <c r="W9" s="19">
         <v>1.5577053865658811E-5</v>
       </c>
-      <c r="W9" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="X9" s="10" t="s">
         <v>112</v>
       </c>
       <c r="Y9" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="7"/>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="Z9" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="7"/>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
@@ -3323,24 +3357,25 @@
       <c r="C10" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="16" t="str">
+        <f>[1]!CAS_code(C10)</f>
+        <v>106-97-8</v>
+      </c>
+      <c r="E10" s="16">
         <f>[1]!Props1(C10,"Tcrit")</f>
         <v>425.125</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="F10" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="G10" s="16">
+      <c r="G10" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10" s="16">
         <v>3</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>112</v>
+      <c r="I10" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>112</v>
@@ -3348,24 +3383,24 @@
       <c r="K10" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" s="10">
         <v>2.15</v>
       </c>
-      <c r="M10" s="10">
+      <c r="N10" s="10">
         <v>0.5</v>
       </c>
-      <c r="N10" s="10">
+      <c r="O10" s="10">
         <v>0.4</v>
       </c>
-      <c r="O10" s="10">
+      <c r="P10" s="10">
         <v>0.48499999999999999</v>
       </c>
-      <c r="P10" s="15">
+      <c r="Q10" s="15">
         <v>0.35199999999999998</v>
       </c>
-      <c r="Q10" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R10" s="10" t="s">
         <v>112</v>
       </c>
@@ -3390,10 +3425,13 @@
       <c r="Y10" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="7"/>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="Z10" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="7"/>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="16" t="s">
         <v>7</v>
       </c>
@@ -3403,22 +3441,23 @@
       <c r="C11" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="16" t="str">
+        <f>[1]!CAS_code(C11)</f>
+        <v>112-40-3</v>
+      </c>
+      <c r="E11" s="16">
         <f>[1]!Props1(C11,"Tcrit")</f>
         <v>658.1</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16" t="s">
-        <v>111</v>
-      </c>
+      <c r="F11" s="16"/>
       <c r="G11" s="16" t="s">
         <v>111</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>112</v>
+      <c r="I11" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>112</v>
@@ -3426,24 +3465,24 @@
       <c r="K11" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="10">
         <v>2.19</v>
       </c>
-      <c r="M11" s="10">
+      <c r="N11" s="10">
         <v>0.3</v>
       </c>
-      <c r="N11" s="10">
+      <c r="O11" s="10">
         <v>0.4</v>
       </c>
-      <c r="O11" s="10">
+      <c r="P11" s="10">
         <v>0.45200000000000001</v>
       </c>
-      <c r="P11" s="15">
+      <c r="Q11" s="15">
         <v>0.35699999999999998</v>
       </c>
-      <c r="Q11" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R11" s="10" t="s">
         <v>112</v>
       </c>
@@ -3468,10 +3507,13 @@
       <c r="Y11" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="7"/>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="Z11" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="7"/>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="16" t="s">
         <v>8</v>
       </c>
@@ -3480,20 +3522,21 @@
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16" t="str">
+        <f>[1]!CAS_code(C12)</f>
+        <v>Fluid name invalid</v>
+      </c>
+      <c r="E12" s="16" t="str">
         <f>[1]!Props1(C12,"Tcrit")</f>
-        <v>CoolProp error: Your fluid name [] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="16">
+        <v>CoolProp error: Fluid "" is an invalid fluid</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="16">
         <v>0.63900000000000001</v>
       </c>
-      <c r="H12" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="16" t="s">
         <v>112</v>
       </c>
       <c r="J12" s="10" t="s">
@@ -3503,23 +3546,23 @@
         <v>112</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="M12" s="10">
+        <v>112</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="N12" s="10">
         <v>0.5</v>
       </c>
-      <c r="N12" s="10">
+      <c r="O12" s="10">
         <v>0.6</v>
       </c>
-      <c r="O12" s="10">
+      <c r="P12" s="10">
         <v>0.39200000000000002</v>
       </c>
-      <c r="P12" s="16">
+      <c r="Q12" s="16">
         <v>1.87</v>
       </c>
-      <c r="Q12" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R12" s="10" t="s">
         <v>112</v>
       </c>
@@ -3544,10 +3587,13 @@
       <c r="Y12" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="7"/>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="Z12" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="7"/>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
@@ -3557,22 +3603,23 @@
       <c r="C13" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="16" t="str">
+        <f>[1]!CAS_code(C13)</f>
+        <v>590-18-1</v>
+      </c>
+      <c r="E13" s="16">
         <f>[1]!Props1(C13,"Tcrit")</f>
         <v>435.75</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="F13" s="16"/>
       <c r="G13" s="11" t="s">
         <v>113</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>112</v>
+      <c r="I13" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>112</v>
@@ -3580,22 +3627,22 @@
       <c r="K13" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M13" s="10">
         <v>2.57</v>
       </c>
-      <c r="M13" s="10">
+      <c r="N13" s="10">
         <v>0.4</v>
       </c>
-      <c r="N13" s="10">
+      <c r="O13" s="10">
         <v>1</v>
       </c>
-      <c r="O13" s="10"/>
-      <c r="P13" s="16">
+      <c r="P13" s="10"/>
+      <c r="Q13" s="16">
         <v>1.1499999999999999</v>
       </c>
-      <c r="Q13" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R13" s="10" t="s">
         <v>112</v>
       </c>
@@ -3620,10 +3667,13 @@
       <c r="Y13" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="7"/>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="Z13" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="7"/>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="16" t="s">
         <v>10</v>
       </c>
@@ -3632,21 +3682,22 @@
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16" t="str">
+        <f>[1]!CAS_code(C14)</f>
+        <v>Fluid name invalid</v>
+      </c>
+      <c r="E14" s="16" t="str">
         <f>[1]!Props1(C14,"Tcrit")</f>
-        <v>CoolProp error: Your fluid name [] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="11" t="s">
-        <v>113</v>
-      </c>
+        <v>CoolProp error: Fluid "" is an invalid fluid</v>
+      </c>
+      <c r="F14" s="16"/>
       <c r="G14" s="11" t="s">
         <v>113</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I14" s="10" t="s">
-        <v>112</v>
+      <c r="I14" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>112</v>
@@ -3666,12 +3717,12 @@
       <c r="O14" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q14" s="16">
         <v>2.57</v>
       </c>
-      <c r="Q14" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R14" s="10" t="s">
         <v>112</v>
       </c>
@@ -3696,10 +3747,13 @@
       <c r="Y14" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="7"/>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="Z14" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="7"/>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="16" t="s">
         <v>11</v>
       </c>
@@ -3708,22 +3762,23 @@
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16" t="str">
+        <f>[1]!CAS_code(C15)</f>
+        <v>Fluid name invalid</v>
+      </c>
+      <c r="E15" s="16" t="str">
         <f>[1]!Props1(C15,"Tcrit")</f>
-        <v>CoolProp error: Your fluid name [] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16">
+        <v>CoolProp error: Fluid "" is an invalid fluid</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16">
         <v>6330</v>
       </c>
-      <c r="G15" s="16">
+      <c r="H15" s="16">
         <v>8860</v>
       </c>
-      <c r="H15" s="16">
+      <c r="I15" s="16">
         <v>12500</v>
       </c>
-      <c r="I15" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="J15" s="10" t="s">
         <v>112</v>
       </c>
@@ -3731,10 +3786,10 @@
         <v>112</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>112</v>
@@ -3742,10 +3797,10 @@
       <c r="O15" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P15" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q15" s="10" t="s">
+      <c r="P15" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q15" s="16" t="s">
         <v>112</v>
       </c>
       <c r="R15" s="10" t="s">
@@ -3772,10 +3827,13 @@
       <c r="Y15" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="7"/>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="Z15" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="7"/>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="16" t="s">
         <v>12</v>
       </c>
@@ -3784,22 +3842,23 @@
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="str">
+        <f>[1]!CAS_code(C16)</f>
+        <v>Fluid name invalid</v>
+      </c>
+      <c r="E16" s="16" t="str">
         <f>[1]!Props1(C16,"Tcrit")</f>
-        <v>CoolProp error: Your fluid name [] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16">
+        <v>CoolProp error: Fluid "" is an invalid fluid</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16">
         <v>6510</v>
       </c>
-      <c r="G16" s="16">
+      <c r="H16" s="16">
         <v>9160</v>
       </c>
-      <c r="H16" s="16">
+      <c r="I16" s="16">
         <v>13300</v>
       </c>
-      <c r="I16" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="J16" s="10" t="s">
         <v>112</v>
       </c>
@@ -3807,10 +3866,10 @@
         <v>112</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N16" s="10" t="s">
         <v>112</v>
@@ -3818,10 +3877,10 @@
       <c r="O16" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q16" s="10" t="s">
+      <c r="P16" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="16" t="s">
         <v>112</v>
       </c>
       <c r="R16" s="10" t="s">
@@ -3848,10 +3907,13 @@
       <c r="Y16" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="7"/>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="Z16" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="7"/>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="16" t="s">
         <v>13</v>
       </c>
@@ -3860,22 +3922,23 @@
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="str">
+        <f>[1]!CAS_code(C17)</f>
+        <v>Fluid name invalid</v>
+      </c>
+      <c r="E17" s="16" t="str">
         <f>[1]!Props1(C17,"Tcrit")</f>
-        <v>CoolProp error: Your fluid name [] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="11" t="s">
+        <v>CoolProp error: Fluid "" is an invalid fluid</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="I17" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="I17" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="J17" s="10" t="s">
         <v>112</v>
       </c>
@@ -3883,10 +3946,10 @@
         <v>112</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>112</v>
@@ -3894,10 +3957,10 @@
       <c r="O17" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q17" s="10" t="s">
+      <c r="P17" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q17" s="16" t="s">
         <v>112</v>
       </c>
       <c r="R17" s="10" t="s">
@@ -3924,10 +3987,13 @@
       <c r="Y17" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="7"/>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="Z17" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="7"/>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="16" t="s">
         <v>14</v>
       </c>
@@ -3937,21 +4003,22 @@
       <c r="C18" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="16" t="str">
+        <f>[1]!CAS_code(C18)</f>
+        <v>630-08-0</v>
+      </c>
+      <c r="E18" s="16">
         <f>[1]!Props1(C18,"Tcrit")</f>
         <v>132.86000000000001</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="11" t="s">
+      <c r="F18" s="16"/>
+      <c r="G18" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="H18" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="16" t="s">
         <v>112</v>
       </c>
       <c r="J18" s="10" t="s">
@@ -3960,24 +4027,24 @@
       <c r="K18" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M18" s="10">
         <v>0.33100000000000002</v>
       </c>
-      <c r="M18" s="10">
+      <c r="N18" s="10">
         <v>0.04</v>
       </c>
-      <c r="N18" s="10">
+      <c r="O18" s="10">
         <v>0.03</v>
       </c>
-      <c r="O18" s="10">
+      <c r="P18" s="10">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="P18" s="18">
+      <c r="Q18" s="18">
         <v>2.7E-2</v>
       </c>
-      <c r="Q18" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R18" s="10" t="s">
         <v>112</v>
       </c>
@@ -4002,10 +4069,13 @@
       <c r="Y18" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="7"/>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="Z18" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="7"/>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
@@ -4015,22 +4085,23 @@
       <c r="C19" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="16" t="str">
+        <f>[1]!CAS_code(C19)</f>
+        <v>124-38-9</v>
+      </c>
+      <c r="E19" s="16">
         <f>[1]!Props1(C19,"Tcrit")</f>
         <v>304.12819999999999</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16">
-        <v>1</v>
-      </c>
+      <c r="F19" s="16"/>
       <c r="G19" s="16">
         <v>1</v>
       </c>
       <c r="H19" s="16">
         <v>1</v>
       </c>
-      <c r="I19" s="10" t="s">
-        <v>112</v>
+      <c r="I19" s="16">
+        <v>1</v>
       </c>
       <c r="J19" s="10" t="s">
         <v>112</v>
@@ -4038,22 +4109,22 @@
       <c r="K19" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M19" s="10">
         <v>0.108</v>
       </c>
-      <c r="M19" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="N19" s="10" t="s">
         <v>112</v>
       </c>
       <c r="O19" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="10" t="s">
+      <c r="P19" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="16" t="s">
         <v>112</v>
       </c>
       <c r="R19" s="10" t="s">
@@ -4080,10 +4151,13 @@
       <c r="Y19" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="7"/>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="Z19" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="7"/>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="16" t="s">
         <v>16</v>
       </c>
@@ -4093,21 +4167,22 @@
       <c r="C20" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="16" t="str">
+        <f>[1]!CAS_code(C20)</f>
+        <v>463-58-1</v>
+      </c>
+      <c r="E20" s="16">
         <f>[1]!Props1(C20,"Tcrit")</f>
         <v>378.77</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16">
         <v>97</v>
       </c>
-      <c r="G20" s="16">
+      <c r="H20" s="16">
         <v>27</v>
       </c>
-      <c r="H20" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="16" t="s">
         <v>112</v>
       </c>
       <c r="J20" s="10" t="s">
@@ -4117,10 +4192,10 @@
         <v>112</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N20" s="10" t="s">
         <v>112</v>
@@ -4128,10 +4203,10 @@
       <c r="O20" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P20" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q20" s="10" t="s">
+      <c r="P20" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q20" s="16" t="s">
         <v>112</v>
       </c>
       <c r="R20" s="10" t="s">
@@ -4158,10 +4233,13 @@
       <c r="Y20" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="7"/>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="Z20" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="7"/>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="16" t="s">
         <v>17</v>
       </c>
@@ -4171,22 +4249,23 @@
       <c r="C21" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="16" t="str">
+        <f>[1]!CAS_code(C21)</f>
+        <v>110-82-7</v>
+      </c>
+      <c r="E21" s="16">
         <f>[1]!Props1(C21,"Tcrit")</f>
         <v>553.64</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16" t="s">
-        <v>111</v>
-      </c>
+      <c r="F21" s="16"/>
       <c r="G21" s="16" t="s">
         <v>111</v>
       </c>
       <c r="H21" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="I21" s="10" t="s">
-        <v>112</v>
+      <c r="I21" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="J21" s="10" t="s">
         <v>112</v>
@@ -4194,8 +4273,8 @@
       <c r="K21" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L21" s="14" t="s">
-        <v>266</v>
+      <c r="L21" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="M21" s="14" t="s">
         <v>266</v>
@@ -4206,11 +4285,11 @@
       <c r="O21" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="P21" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q21" s="10" t="s">
-        <v>112</v>
+      <c r="P21" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q21" s="18" t="s">
+        <v>266</v>
       </c>
       <c r="R21" s="10" t="s">
         <v>112</v>
@@ -4236,10 +4315,13 @@
       <c r="Y21" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="7"/>
-    </row>
-    <row r="22" spans="1:27" s="8" customFormat="1">
+      <c r="Z21" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="7"/>
+    </row>
+    <row r="22" spans="1:28" s="8" customFormat="1">
       <c r="A22" s="16" t="s">
         <v>18</v>
       </c>
@@ -4249,22 +4331,23 @@
       <c r="C22" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="16" t="str">
+        <f>[1]!CAS_code(C22)</f>
+        <v>287-92-3</v>
+      </c>
+      <c r="E22" s="16">
         <f>[1]!Props1(C22,"Tcrit")</f>
         <v>511.72</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="F22" s="16"/>
       <c r="G22" s="11" t="s">
         <v>113</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I22" s="10" t="s">
-        <v>112</v>
+      <c r="I22" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>112</v>
@@ -4272,8 +4355,8 @@
       <c r="K22" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L22" s="14" t="s">
-        <v>266</v>
+      <c r="L22" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="M22" s="14" t="s">
         <v>266</v>
@@ -4284,11 +4367,11 @@
       <c r="O22" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="P22" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>112</v>
+      <c r="P22" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q22" s="18" t="s">
+        <v>266</v>
       </c>
       <c r="R22" s="10" t="s">
         <v>112</v>
@@ -4314,10 +4397,13 @@
       <c r="Y22" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z22" s="6"/>
+      <c r="Z22" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA22" s="6"/>
-    </row>
-    <row r="23" spans="1:27" s="8" customFormat="1">
+      <c r="AB22" s="6"/>
+    </row>
+    <row r="23" spans="1:28" s="8" customFormat="1">
       <c r="A23" s="16" t="s">
         <v>19</v>
       </c>
@@ -4327,22 +4413,23 @@
       <c r="C23" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="16" t="str">
+        <f>[1]!CAS_code(C23)</f>
+        <v>75-19-4</v>
+      </c>
+      <c r="E23" s="16">
         <f>[1]!Props1(C23,"Tcrit")</f>
         <v>398.3</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="F23" s="16"/>
       <c r="G23" s="11" t="s">
         <v>113</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I23" s="10" t="s">
-        <v>112</v>
+      <c r="I23" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>112</v>
@@ -4350,8 +4437,8 @@
       <c r="K23" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L23" s="14" t="s">
-        <v>266</v>
+      <c r="L23" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="M23" s="14" t="s">
         <v>266</v>
@@ -4362,11 +4449,11 @@
       <c r="O23" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="P23" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q23" s="10" t="s">
-        <v>112</v>
+      <c r="P23" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q23" s="18" t="s">
+        <v>266</v>
       </c>
       <c r="R23" s="10" t="s">
         <v>112</v>
@@ -4392,10 +4479,13 @@
       <c r="Y23" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z23" s="6"/>
+      <c r="Z23" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA23" s="6"/>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23" s="6"/>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="16" t="s">
         <v>20</v>
       </c>
@@ -4406,21 +4496,22 @@
         <v>370</v>
       </c>
       <c r="D24" s="16" t="str">
+        <f>[1]!CAS_code(C24)</f>
+        <v>7782-39-0</v>
+      </c>
+      <c r="E24" s="16">
         <f>[1]!Props1(C24,"Tcrit")</f>
-        <v>CoolProp error: Your fluid name [Deuterium] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16">
-        <v>0</v>
-      </c>
+        <v>38.340000000000003</v>
+      </c>
+      <c r="F24" s="16"/>
       <c r="G24" s="16">
         <v>0</v>
       </c>
       <c r="H24" s="16">
         <v>0</v>
       </c>
-      <c r="I24" s="10" t="s">
-        <v>112</v>
+      <c r="I24" s="16">
+        <v>0</v>
       </c>
       <c r="J24" s="10" t="s">
         <v>112</v>
@@ -4428,11 +4519,11 @@
       <c r="K24" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L24" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>112</v>
+      <c r="L24" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>112</v>
@@ -4440,10 +4531,10 @@
       <c r="O24" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P24" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q24" s="10" t="s">
+      <c r="P24" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q24" s="18" t="s">
         <v>112</v>
       </c>
       <c r="R24" s="10" t="s">
@@ -4470,10 +4561,13 @@
       <c r="Y24" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="7"/>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="Z24" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="7"/>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="16" t="s">
         <v>21</v>
       </c>
@@ -4484,20 +4578,21 @@
         <v>371</v>
       </c>
       <c r="D25" s="16" t="str">
+        <f>[1]!CAS_code(C25)</f>
+        <v>Fluid name invalid</v>
+      </c>
+      <c r="E25" s="16" t="str">
         <f>[1]!Props1(C25,"Tcrit")</f>
-        <v>CoolProp error: Your fluid name [DeuteriumOxide] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16" t="s">
-        <v>112</v>
-      </c>
+        <v>CoolProp error: Fluid "DeuteriumOxide" is an invalid fluid</v>
+      </c>
+      <c r="F25" s="16"/>
       <c r="G25" s="16" t="s">
         <v>112</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="16" t="s">
         <v>112</v>
       </c>
       <c r="J25" s="10" t="s">
@@ -4506,11 +4601,11 @@
       <c r="K25" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L25" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>112</v>
+      <c r="L25" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="N25" s="10" t="s">
         <v>112</v>
@@ -4518,10 +4613,10 @@
       <c r="O25" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P25" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q25" s="10" t="s">
+      <c r="P25" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q25" s="18" t="s">
         <v>112</v>
       </c>
       <c r="R25" s="10" t="s">
@@ -4548,10 +4643,13 @@
       <c r="Y25" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="7"/>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="Z25" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="7"/>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="16" t="s">
         <v>22</v>
       </c>
@@ -4561,22 +4659,23 @@
       <c r="C26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="16" t="str">
+        <f>[1]!CAS_code(C26)</f>
+        <v>556-67-2</v>
+      </c>
+      <c r="E26" s="16">
         <f>[1]!Props1(C26,"Tcrit")</f>
         <v>586.5</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="14" t="s">
-        <v>266</v>
-      </c>
+      <c r="F26" s="16"/>
       <c r="G26" s="14" t="s">
         <v>266</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="I26" s="10" t="s">
-        <v>112</v>
+      <c r="I26" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>112</v>
@@ -4584,11 +4683,11 @@
       <c r="K26" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L26" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>112</v>
+      <c r="L26" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>112</v>
@@ -4596,10 +4695,10 @@
       <c r="O26" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P26" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q26" s="10" t="s">
+      <c r="P26" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q26" s="18" t="s">
         <v>112</v>
       </c>
       <c r="R26" s="10" t="s">
@@ -4626,10 +4725,13 @@
       <c r="Y26" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="7"/>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="Z26" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="7"/>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="16" t="s">
         <v>23</v>
       </c>
@@ -4639,22 +4741,23 @@
       <c r="C27" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="16" t="str">
+        <f>[1]!CAS_code(C27)</f>
+        <v>541-02-6</v>
+      </c>
+      <c r="E27" s="16">
         <f>[1]!Props1(C27,"Tcrit")</f>
         <v>619.15</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="14" t="s">
-        <v>266</v>
-      </c>
+      <c r="F27" s="16"/>
       <c r="G27" s="14" t="s">
         <v>266</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="I27" s="10" t="s">
-        <v>112</v>
+      <c r="I27" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="J27" s="10" t="s">
         <v>112</v>
@@ -4662,11 +4765,11 @@
       <c r="K27" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L27" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>112</v>
+      <c r="L27" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="N27" s="10" t="s">
         <v>112</v>
@@ -4674,10 +4777,10 @@
       <c r="O27" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P27" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q27" s="10" t="s">
+      <c r="P27" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q27" s="18" t="s">
         <v>112</v>
       </c>
       <c r="R27" s="10" t="s">
@@ -4704,10 +4807,13 @@
       <c r="Y27" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="7"/>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="Z27" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="7"/>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="16" t="s">
         <v>24</v>
       </c>
@@ -4717,22 +4823,23 @@
       <c r="C28" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="16" t="str">
+        <f>[1]!CAS_code(C28)</f>
+        <v>540-97-6</v>
+      </c>
+      <c r="E28" s="16">
         <f>[1]!Props1(C28,"Tcrit")</f>
         <v>645.78</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="14" t="s">
-        <v>266</v>
-      </c>
+      <c r="F28" s="16"/>
       <c r="G28" s="14" t="s">
         <v>266</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="I28" s="10" t="s">
-        <v>112</v>
+      <c r="I28" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="J28" s="10" t="s">
         <v>112</v>
@@ -4740,11 +4847,11 @@
       <c r="K28" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L28" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>112</v>
+      <c r="L28" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>112</v>
@@ -4752,10 +4859,10 @@
       <c r="O28" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P28" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q28" s="10" t="s">
+      <c r="P28" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q28" s="18" t="s">
         <v>112</v>
       </c>
       <c r="R28" s="10" t="s">
@@ -4782,10 +4889,13 @@
       <c r="Y28" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="7"/>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="Z28" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="7"/>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" s="16" t="s">
         <v>25</v>
       </c>
@@ -4795,22 +4905,23 @@
       <c r="C29" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="16" t="str">
+        <f>[1]!CAS_code(C29)</f>
+        <v>124-18-5</v>
+      </c>
+      <c r="E29" s="16">
         <f>[1]!Props1(C29,"Tcrit")</f>
         <v>617.70000000000005</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="F29" s="16"/>
       <c r="G29" s="11" t="s">
         <v>113</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I29" s="10" t="s">
-        <v>112</v>
+      <c r="I29" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>112</v>
@@ -4818,24 +4929,24 @@
       <c r="K29" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M29" s="10">
         <v>2.4500000000000002</v>
       </c>
-      <c r="M29" s="10">
+      <c r="N29" s="10">
         <v>0.4</v>
       </c>
-      <c r="N29" s="10">
+      <c r="O29" s="10">
         <v>0.5</v>
       </c>
-      <c r="O29" s="10">
+      <c r="P29" s="10">
         <v>0.50900000000000001</v>
       </c>
-      <c r="P29" s="15">
+      <c r="Q29" s="15">
         <v>0.38400000000000001</v>
       </c>
-      <c r="Q29" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R29" s="10" t="s">
         <v>112</v>
       </c>
@@ -4860,10 +4971,13 @@
       <c r="Y29" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="7"/>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="Z29" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="7"/>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" s="16" t="s">
         <v>26</v>
       </c>
@@ -4873,14 +4987,15 @@
       <c r="C30" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="16" t="str">
+        <f>[1]!CAS_code(C30)</f>
+        <v>616-38-6</v>
+      </c>
+      <c r="E30" s="16">
         <f>[1]!Props1(C30,"Tcrit")</f>
         <v>557</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="10" t="s">
-        <v>266</v>
-      </c>
+      <c r="F30" s="16"/>
       <c r="G30" s="10" t="s">
         <v>266</v>
       </c>
@@ -4888,7 +5003,7 @@
         <v>266</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="J30" s="10" t="s">
         <v>112</v>
@@ -4897,10 +5012,10 @@
         <v>112</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N30" s="10" t="s">
         <v>112</v>
@@ -4908,12 +5023,12 @@
       <c r="O30" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P30" s="15">
+      <c r="P30" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q30" s="15">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="Q30" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R30" s="10" t="s">
         <v>112</v>
       </c>
@@ -4938,10 +5053,13 @@
       <c r="Y30" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="7"/>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="Z30" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="7"/>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" s="16" t="s">
         <v>27</v>
       </c>
@@ -4951,45 +5069,46 @@
       <c r="C31" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="16" t="str">
+        <f>[1]!CAS_code(C31)</f>
+        <v>115-10-6</v>
+      </c>
+      <c r="E31" s="16">
         <f>[1]!Props1(C31,"Tcrit")</f>
         <v>400.37799999999999</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16">
-        <v>1</v>
-      </c>
+      <c r="F31" s="16"/>
       <c r="G31" s="16">
         <v>1</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="16">
+        <v>1</v>
+      </c>
+      <c r="I31" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="I31" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="J31" s="10" t="s">
         <v>112</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M31" s="10">
         <v>1.66</v>
-      </c>
-      <c r="M31" s="10">
-        <v>0.3</v>
       </c>
       <c r="N31" s="10">
         <v>0.3</v>
       </c>
-      <c r="O31" s="10"/>
-      <c r="P31" s="15">
+      <c r="O31" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="15">
         <v>0.189</v>
       </c>
-      <c r="Q31" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R31" s="10" t="s">
         <v>112</v>
       </c>
@@ -5014,10 +5133,13 @@
       <c r="Y31" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="7"/>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="Z31" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="7"/>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" s="16" t="s">
         <v>28</v>
       </c>
@@ -5027,24 +5149,25 @@
       <c r="C32" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="16" t="str">
+        <f>[1]!CAS_code(C32)</f>
+        <v>74-84-0</v>
+      </c>
+      <c r="E32" s="16">
         <f>[1]!Props1(C32,"Tcrit")</f>
         <v>305.322</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="F32" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="F32" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="G32" s="16">
+      <c r="G32" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="H32" s="16">
         <v>2.9</v>
       </c>
-      <c r="H32" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>112</v>
+      <c r="I32" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="J32" s="10" t="s">
         <v>112</v>
@@ -5052,24 +5175,24 @@
       <c r="K32" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M32" s="10">
         <v>1.46</v>
-      </c>
-      <c r="M32" s="10">
-        <v>0.1</v>
       </c>
       <c r="N32" s="10">
         <v>0.1</v>
       </c>
       <c r="O32" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P32" s="10">
         <v>0.121</v>
       </c>
-      <c r="P32" s="15">
+      <c r="Q32" s="15">
         <v>0.123</v>
       </c>
-      <c r="Q32" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R32" s="10" t="s">
         <v>112</v>
       </c>
@@ -5094,10 +5217,13 @@
       <c r="Y32" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="7"/>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="Z32" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="7"/>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" s="16" t="s">
         <v>29</v>
       </c>
@@ -5107,21 +5233,22 @@
       <c r="C33" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="16" t="str">
+        <f>[1]!CAS_code(C33)</f>
+        <v>64-17-5</v>
+      </c>
+      <c r="E33" s="16">
         <f>[1]!Props1(C33,"Tcrit")</f>
         <v>514.71</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16" t="s">
-        <v>112</v>
-      </c>
+      <c r="F33" s="16"/>
       <c r="G33" s="16" t="s">
         <v>112</v>
       </c>
       <c r="H33" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="16" t="s">
         <v>112</v>
       </c>
       <c r="J33" s="10" t="s">
@@ -5130,24 +5257,24 @@
       <c r="K33" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M33" s="10">
         <v>1.95</v>
       </c>
-      <c r="M33" s="10">
+      <c r="N33" s="10">
         <v>0.2</v>
       </c>
-      <c r="N33" s="10">
+      <c r="O33" s="10">
         <v>0.3</v>
       </c>
-      <c r="O33" s="10">
+      <c r="P33" s="10">
         <v>0.317</v>
       </c>
-      <c r="P33" s="15">
+      <c r="Q33" s="15">
         <v>0.39900000000000002</v>
       </c>
-      <c r="Q33" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R33" s="10" t="s">
         <v>112</v>
       </c>
@@ -5163,19 +5290,22 @@
       <c r="V33" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="W33" s="15">
+      <c r="W33" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="X33" s="15">
         <v>1562500</v>
       </c>
-      <c r="X33" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="Y33" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="7"/>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="Z33" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="7"/>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" s="16" t="s">
         <v>30</v>
       </c>
@@ -5185,24 +5315,25 @@
       <c r="C34" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="16" t="str">
+        <f>[1]!CAS_code(C34)</f>
+        <v>74-85-1</v>
+      </c>
+      <c r="E34" s="16">
         <f>[1]!Props1(C34,"Tcrit")</f>
         <v>282.35000000000002</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="F34" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="F34" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="G34" s="16">
+      <c r="G34" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="H34" s="16">
         <v>6.8</v>
       </c>
-      <c r="H34" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>112</v>
+      <c r="I34" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="J34" s="10" t="s">
         <v>112</v>
@@ -5210,11 +5341,11 @@
       <c r="K34" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M34" s="10">
         <v>3.45</v>
-      </c>
-      <c r="M34" s="10">
-        <v>1</v>
       </c>
       <c r="N34" s="10">
         <v>1</v>
@@ -5222,40 +5353,43 @@
       <c r="O34" s="10">
         <v>1</v>
       </c>
-      <c r="P34" s="19">
+      <c r="P34" s="10">
         <v>1</v>
       </c>
       <c r="Q34" s="19">
+        <v>1</v>
+      </c>
+      <c r="R34" s="19">
         <v>0.63674522261895017</v>
       </c>
-      <c r="R34" s="19">
+      <c r="S34" s="19">
         <v>1.4259282909124195E-11</v>
       </c>
-      <c r="S34" s="19">
+      <c r="T34" s="19">
         <v>7.9262472916081808E-11</v>
       </c>
-      <c r="T34" s="19">
+      <c r="U34" s="19">
         <v>8.9765896846081641E-12</v>
       </c>
-      <c r="U34" s="19">
+      <c r="V34" s="19">
         <v>7.1448848873528192E-11</v>
       </c>
-      <c r="V34" s="19">
+      <c r="W34" s="19">
         <v>1.3479108428403499E-12</v>
       </c>
-      <c r="W34" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="X34" s="10" t="s">
         <v>112</v>
       </c>
       <c r="Y34" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="7"/>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="Z34" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="7"/>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" s="16" t="s">
         <v>31</v>
       </c>
@@ -5266,20 +5400,21 @@
         <v>378</v>
       </c>
       <c r="D35" s="16" t="str">
+        <f>[1]!CAS_code(C35)</f>
+        <v>7782-41-4</v>
+      </c>
+      <c r="E35" s="16">
         <f>[1]!Props1(C35,"Tcrit")</f>
-        <v>CoolProp error: Your fluid name [Fluorine] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
-      </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16" t="s">
-        <v>112</v>
-      </c>
+        <v>144.41399999999999</v>
+      </c>
+      <c r="F35" s="16"/>
       <c r="G35" s="16" t="s">
         <v>112</v>
       </c>
       <c r="H35" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I35" s="16" t="s">
         <v>112</v>
       </c>
       <c r="J35" s="10" t="s">
@@ -5288,22 +5423,22 @@
       <c r="K35" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L35" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M35" s="10">
         <v>4.8600000000000003</v>
       </c>
-      <c r="M35" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="N35" s="16" t="s">
         <v>112</v>
       </c>
       <c r="O35" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="P35" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q35" s="10" t="s">
+      <c r="P35" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q35" s="18" t="s">
         <v>112</v>
       </c>
       <c r="R35" s="10" t="s">
@@ -5330,10 +5465,13 @@
       <c r="Y35" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="7"/>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="Z35" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="7"/>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" s="16" t="s">
         <v>32</v>
       </c>
@@ -5343,21 +5481,22 @@
       <c r="C36" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="16" t="str">
+        <f>[1]!CAS_code(C36)</f>
+        <v>7783-06-4</v>
+      </c>
+      <c r="E36" s="16">
         <f>[1]!Props1(C36,"Tcrit")</f>
         <v>373.1</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16" t="s">
-        <v>112</v>
-      </c>
+      <c r="F36" s="16"/>
       <c r="G36" s="16" t="s">
         <v>112</v>
       </c>
       <c r="H36" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I36" s="16" t="s">
         <v>112</v>
       </c>
       <c r="J36" s="10" t="s">
@@ -5366,27 +5505,27 @@
       <c r="K36" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L36" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M36" s="10">
         <v>6.89</v>
       </c>
-      <c r="M36" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="N36" s="16" t="s">
         <v>112</v>
       </c>
       <c r="O36" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="P36" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q36" s="19">
+      <c r="P36" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q36" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="R36" s="19">
         <v>0.22</v>
       </c>
-      <c r="R36" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="S36" s="10" t="s">
         <v>112</v>
       </c>
@@ -5399,19 +5538,22 @@
       <c r="V36" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="W36" s="19">
+      <c r="W36" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="X36" s="19">
         <v>2325581395.3488369</v>
       </c>
-      <c r="X36" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="Y36" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="7"/>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="Z36" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="7"/>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" s="16" t="s">
         <v>33</v>
       </c>
@@ -5421,23 +5563,24 @@
       <c r="C37" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="16" t="str">
+        <f>[1]!CAS_code(C37)</f>
+        <v>7440-59-7</v>
+      </c>
+      <c r="E37" s="16">
         <f>[1]!Props1(C37,"Tcrit")</f>
         <v>5.1952999999999996</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="F37" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="F37" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="G37" s="16" t="s">
         <v>112</v>
       </c>
       <c r="H37" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="16" t="s">
         <v>112</v>
       </c>
       <c r="J37" s="10" t="s">
@@ -5447,10 +5590,10 @@
         <v>112</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="M37" s="16" t="s">
-        <v>112</v>
+        <v>112</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>266</v>
       </c>
       <c r="N37" s="16" t="s">
         <v>112</v>
@@ -5458,10 +5601,10 @@
       <c r="O37" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="P37" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q37" s="16"/>
       <c r="R37" s="10" t="s">
         <v>112</v>
       </c>
@@ -5486,10 +5629,13 @@
       <c r="Y37" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="7"/>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="Z37" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="7"/>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" s="16" t="s">
         <v>34</v>
       </c>
@@ -5499,22 +5645,23 @@
       <c r="C38" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="16" t="str">
+        <f>[1]!CAS_code(C38)</f>
+        <v>142-82-5</v>
+      </c>
+      <c r="E38" s="16">
         <f>[1]!Props1(C38,"Tcrit")</f>
         <v>540.13</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="F38" s="16"/>
       <c r="G38" s="11" t="s">
         <v>113</v>
       </c>
       <c r="H38" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I38" s="10" t="s">
-        <v>112</v>
+      <c r="I38" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="J38" s="10" t="s">
         <v>112</v>
@@ -5522,22 +5669,22 @@
       <c r="K38" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L38" s="10">
+      <c r="L38" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M38" s="10">
         <v>2.58</v>
-      </c>
-      <c r="M38" s="10">
-        <v>0.5</v>
       </c>
       <c r="N38" s="10">
         <v>0.5</v>
       </c>
       <c r="O38" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="P38" s="10">
         <v>0.59199999999999997</v>
       </c>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="Q38" s="10"/>
       <c r="R38" s="10" t="s">
         <v>112</v>
       </c>
@@ -5562,10 +5709,13 @@
       <c r="Y38" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="7"/>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="Z38" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="7"/>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" s="16" t="s">
         <v>35</v>
       </c>
@@ -5575,47 +5725,48 @@
       <c r="C39" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="16" t="str">
+        <f>[1]!CAS_code(C39)</f>
+        <v>110-54-3</v>
+      </c>
+      <c r="E39" s="16">
         <f>[1]!Props1(C39,"Tcrit")</f>
         <v>507.82</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="16"/>
+      <c r="G39" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G39" s="16">
+      <c r="H39" s="16">
         <v>3.1</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="I39" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I39" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="J39" s="10" t="s">
         <v>112</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L39" s="10">
+      <c r="L39" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M39" s="10">
         <v>2.57</v>
       </c>
-      <c r="M39" s="10">
+      <c r="N39" s="10">
         <v>0.5</v>
       </c>
-      <c r="N39" s="10">
+      <c r="O39" s="10">
         <v>0.4</v>
       </c>
-      <c r="O39" s="10">
+      <c r="P39" s="10">
         <v>0.495</v>
       </c>
-      <c r="P39" s="15">
+      <c r="Q39" s="15">
         <v>0.49399999999999999</v>
       </c>
-      <c r="Q39" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R39" s="10" t="s">
         <v>112</v>
       </c>
@@ -5640,10 +5791,13 @@
       <c r="Y39" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="7"/>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="Z39" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="7"/>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" s="16" t="s">
         <v>36</v>
       </c>
@@ -5651,18 +5805,19 @@
         <v>112</v>
       </c>
       <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
+      <c r="D40" s="16" t="str">
+        <f>[1]!CAS_code(C40)</f>
+        <v>Fluid name invalid</v>
+      </c>
       <c r="E40" s="16"/>
-      <c r="F40" s="16" t="s">
-        <v>112</v>
-      </c>
+      <c r="F40" s="16"/>
       <c r="G40" s="16" t="s">
         <v>112</v>
       </c>
       <c r="H40" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="I40" s="16" t="s">
         <v>112</v>
       </c>
       <c r="J40" s="10" t="s">
@@ -5671,20 +5826,20 @@
       <c r="K40" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="L40" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M40" s="10"/>
       <c r="N40" s="10" t="s">
         <v>112</v>
       </c>
       <c r="O40" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="P40" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q40" s="10"/>
       <c r="R40" s="10" t="s">
         <v>112</v>
       </c>
@@ -5709,10 +5864,13 @@
       <c r="Y40" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="7"/>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="Z40" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="7"/>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" s="16" t="s">
         <v>37</v>
       </c>
@@ -5722,23 +5880,24 @@
       <c r="C41" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="16" t="str">
+        <f>[1]!CAS_code(C41)</f>
+        <v>1333-74-0</v>
+      </c>
+      <c r="E41" s="16">
         <f>[1]!Props1(C41,"Tcrit")</f>
         <v>33.145000000000003</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="F41" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="F41" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="G41" s="16" t="s">
         <v>112</v>
       </c>
       <c r="H41" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="I41" s="16" t="s">
         <v>112</v>
       </c>
       <c r="J41" s="10" t="s">
@@ -5748,10 +5907,10 @@
         <v>112</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N41" s="10" t="s">
         <v>112</v>
@@ -5759,12 +5918,12 @@
       <c r="O41" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P41" s="15">
+      <c r="P41" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q41" s="15">
         <v>0.49399999999999999</v>
       </c>
-      <c r="Q41" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R41" s="10" t="s">
         <v>112</v>
       </c>
@@ -5789,10 +5948,13 @@
       <c r="Y41" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="7"/>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="Z41" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="7"/>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" s="16" t="s">
         <v>38</v>
       </c>
@@ -5802,22 +5964,23 @@
       <c r="C42" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="16" t="str">
+        <f>[1]!CAS_code(C42)</f>
+        <v>115-11-7</v>
+      </c>
+      <c r="E42" s="16">
         <f>[1]!Props1(C42,"Tcrit")</f>
         <v>418.09</v>
       </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="F42" s="16"/>
       <c r="G42" s="11" t="s">
         <v>113</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I42" s="10" t="s">
-        <v>112</v>
+      <c r="I42" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="J42" s="10" t="s">
         <v>112</v>
@@ -5826,21 +5989,21 @@
         <v>112</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="M42" s="10">
-        <v>0.6</v>
+        <v>112</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>266</v>
       </c>
       <c r="N42" s="10">
         <v>0.6</v>
       </c>
-      <c r="O42" s="10"/>
-      <c r="P42" s="15">
+      <c r="O42" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="15">
         <v>0.627</v>
       </c>
-      <c r="Q42" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R42" s="10" t="s">
         <v>112</v>
       </c>
@@ -5856,15 +6019,18 @@
       <c r="V42" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="W42" s="15">
+      <c r="W42" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="X42" s="15">
         <v>66666.666666666672</v>
       </c>
-      <c r="X42" s="10"/>
       <c r="Y42" s="10"/>
-      <c r="Z42" s="7"/>
+      <c r="Z42" s="10"/>
       <c r="AA42" s="7"/>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AB42" s="7"/>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" s="16" t="s">
         <v>39</v>
       </c>
@@ -5874,22 +6040,23 @@
       <c r="C43" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="16" t="str">
+        <f>[1]!CAS_code(C43)</f>
+        <v>107-83-5</v>
+      </c>
+      <c r="E43" s="16">
         <f>[1]!Props1(C43,"Tcrit")</f>
         <v>497.7</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="F43" s="16"/>
       <c r="G43" s="11" t="s">
         <v>113</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I43" s="10" t="s">
-        <v>112</v>
+      <c r="I43" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="J43" s="10" t="s">
         <v>112</v>
@@ -5898,10 +6065,10 @@
         <v>112</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N43" s="10" t="s">
         <v>112</v>
@@ -5909,10 +6076,10 @@
       <c r="O43" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="P43" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q43" s="10"/>
       <c r="R43" s="10" t="s">
         <v>112</v>
       </c>
@@ -5937,10 +6104,13 @@
       <c r="Y43" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z43" s="7"/>
+      <c r="Z43" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA43" s="7"/>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AB43" s="7"/>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" s="16" t="s">
         <v>40</v>
       </c>
@@ -5950,22 +6120,23 @@
       <c r="C44" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="16" t="str">
+        <f>[1]!CAS_code(C44)</f>
+        <v>78-78-4</v>
+      </c>
+      <c r="E44" s="16">
         <f>[1]!Props1(C44,"Tcrit")</f>
         <v>460.35</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="F44" s="16"/>
       <c r="G44" s="11" t="s">
         <v>113</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I44" s="10" t="s">
-        <v>112</v>
+      <c r="I44" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="J44" s="10" t="s">
         <v>112</v>
@@ -5973,22 +6144,22 @@
       <c r="K44" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L44" s="10">
+      <c r="L44" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M44" s="10">
         <v>1.8</v>
-      </c>
-      <c r="M44" s="10">
-        <v>0.3</v>
       </c>
       <c r="N44" s="10">
         <v>0.3</v>
       </c>
-      <c r="O44" s="10"/>
-      <c r="P44" s="15">
+      <c r="O44" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="15">
         <v>0.40500000000000003</v>
       </c>
-      <c r="Q44" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R44" s="10" t="s">
         <v>112</v>
       </c>
@@ -6013,10 +6184,13 @@
       <c r="Y44" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z44" s="7"/>
+      <c r="Z44" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA44" s="7"/>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AB44" s="7"/>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" s="16" t="s">
         <v>41</v>
       </c>
@@ -6024,24 +6198,25 @@
         <v>187</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="D45" s="16">
+        <v>414</v>
+      </c>
+      <c r="D45" s="16" t="str">
+        <f>[1]!CAS_code(C45)</f>
+        <v>75-28-5</v>
+      </c>
+      <c r="E45" s="16">
         <f>[1]!Props1(C45,"Tcrit")</f>
         <v>407.81700000000001</v>
       </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="F45" s="16"/>
       <c r="G45" s="11" t="s">
         <v>113</v>
       </c>
       <c r="H45" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I45" s="10" t="s">
-        <v>112</v>
+      <c r="I45" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="J45" s="10" t="s">
         <v>112</v>
@@ -6049,22 +6224,22 @@
       <c r="K45" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L45" s="10">
+      <c r="L45" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M45" s="10">
         <v>1.74</v>
       </c>
-      <c r="M45" s="10">
+      <c r="N45" s="10">
         <v>0.4</v>
       </c>
-      <c r="N45" s="10">
+      <c r="O45" s="10">
         <v>0.3</v>
       </c>
-      <c r="O45" s="10"/>
-      <c r="P45" s="15">
+      <c r="P45" s="10"/>
+      <c r="Q45" s="15">
         <v>0.307</v>
       </c>
-      <c r="Q45" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R45" s="10" t="s">
         <v>112</v>
       </c>
@@ -6089,10 +6264,13 @@
       <c r="Y45" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z45" s="7"/>
+      <c r="Z45" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA45" s="7"/>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AB45" s="7"/>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" s="16" t="s">
         <v>42</v>
       </c>
@@ -6102,23 +6280,24 @@
       <c r="C46" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="16" t="str">
+        <f>[1]!CAS_code(C46)</f>
+        <v>7439-90-9</v>
+      </c>
+      <c r="E46" s="16">
         <f>[1]!Props1(C46,"Tcrit")</f>
         <v>209.48</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="F46" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="F46" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="G46" s="16" t="s">
         <v>112</v>
       </c>
       <c r="H46" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="I46" s="16" t="s">
         <v>112</v>
       </c>
       <c r="J46" s="10" t="s">
@@ -6128,10 +6307,10 @@
         <v>112</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>112</v>
@@ -6169,10 +6348,13 @@
       <c r="Y46" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z46" s="7"/>
+      <c r="Z46" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA46" s="7"/>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AB46" s="7"/>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" s="16" t="s">
         <v>43</v>
       </c>
@@ -6182,22 +6364,23 @@
       <c r="C47" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="16" t="str">
+        <f>[1]!CAS_code(C47)</f>
+        <v>141-62-8</v>
+      </c>
+      <c r="E47" s="16">
         <f>[1]!Props1(C47,"Tcrit")</f>
         <v>599.4</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="F47" s="16"/>
       <c r="G47" s="11" t="s">
         <v>113</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I47" s="10" t="s">
-        <v>112</v>
+      <c r="I47" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="J47" s="10" t="s">
         <v>112</v>
@@ -6206,10 +6389,10 @@
         <v>112</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N47" s="10" t="s">
         <v>112</v>
@@ -6217,10 +6400,10 @@
       <c r="O47" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="P47" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q47" s="10"/>
       <c r="R47" s="10" t="s">
         <v>112</v>
       </c>
@@ -6245,10 +6428,13 @@
       <c r="Y47" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z47" s="7"/>
+      <c r="Z47" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA47" s="7"/>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AB47" s="7"/>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" s="16" t="s">
         <v>44</v>
       </c>
@@ -6258,22 +6444,23 @@
       <c r="C48" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48" s="16" t="str">
+        <f>[1]!CAS_code(C48)</f>
+        <v>141-63-9</v>
+      </c>
+      <c r="E48" s="16">
         <f>[1]!Props1(C48,"Tcrit")</f>
         <v>628.36</v>
       </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="F48" s="16"/>
       <c r="G48" s="11" t="s">
         <v>113</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I48" s="10" t="s">
-        <v>112</v>
+      <c r="I48" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="J48" s="10" t="s">
         <v>112</v>
@@ -6282,10 +6469,10 @@
         <v>112</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N48" s="10" t="s">
         <v>112</v>
@@ -6293,10 +6480,10 @@
       <c r="O48" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="P48" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q48" s="10"/>
       <c r="R48" s="10" t="s">
         <v>112</v>
       </c>
@@ -6321,10 +6508,13 @@
       <c r="Y48" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z48" s="7"/>
+      <c r="Z48" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA48" s="7"/>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AB48" s="7"/>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" s="16" t="s">
         <v>45</v>
       </c>
@@ -6334,22 +6524,23 @@
       <c r="C49" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="16" t="str">
+        <f>[1]!CAS_code(C49)</f>
+        <v>107-52-8</v>
+      </c>
+      <c r="E49" s="16">
         <f>[1]!Props1(C49,"Tcrit")</f>
         <v>653.20000000000005</v>
       </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="F49" s="16"/>
       <c r="G49" s="11" t="s">
         <v>113</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I49" s="10" t="s">
-        <v>112</v>
+      <c r="I49" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="J49" s="10" t="s">
         <v>112</v>
@@ -6358,10 +6549,10 @@
         <v>112</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M49" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N49" s="10" t="s">
         <v>112</v>
@@ -6369,10 +6560,10 @@
       <c r="O49" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="P49" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q49" s="10"/>
       <c r="R49" s="10" t="s">
         <v>112</v>
       </c>
@@ -6397,10 +6588,13 @@
       <c r="Y49" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z49" s="7"/>
+      <c r="Z49" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA49" s="7"/>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AB49" s="7"/>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" s="16" t="s">
         <v>46</v>
       </c>
@@ -6410,22 +6604,23 @@
       <c r="C50" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D50" s="16" t="str">
+        <f>[1]!CAS_code(C50)</f>
+        <v>107-51-7</v>
+      </c>
+      <c r="E50" s="16">
         <f>[1]!Props1(C50,"Tcrit")</f>
         <v>564.09</v>
       </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="F50" s="16"/>
       <c r="G50" s="11" t="s">
         <v>113</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I50" s="10" t="s">
-        <v>112</v>
+      <c r="I50" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="J50" s="10" t="s">
         <v>112</v>
@@ -6434,10 +6629,10 @@
         <v>112</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N50" s="10" t="s">
         <v>112</v>
@@ -6445,10 +6640,10 @@
       <c r="O50" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="P50" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q50" s="10"/>
       <c r="R50" s="10" t="s">
         <v>112</v>
       </c>
@@ -6473,10 +6668,13 @@
       <c r="Y50" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z50" s="7"/>
+      <c r="Z50" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA50" s="7"/>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AB50" s="7"/>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" s="16" t="s">
         <v>47</v>
       </c>
@@ -6486,45 +6684,46 @@
       <c r="C51" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="16" t="str">
+        <f>[1]!CAS_code(C51)</f>
+        <v>74-82-8</v>
+      </c>
+      <c r="E51" s="16">
         <f>[1]!Props1(C51,"Tcrit")</f>
         <v>190.56399999999999</v>
       </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16">
+      <c r="F51" s="16"/>
+      <c r="G51" s="16">
         <v>72</v>
       </c>
-      <c r="G51" s="16">
+      <c r="H51" s="16">
         <v>25</v>
       </c>
-      <c r="H51" s="16">
+      <c r="I51" s="16">
         <v>7.6</v>
       </c>
-      <c r="I51" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="J51" s="10" t="s">
         <v>112</v>
       </c>
       <c r="K51" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L51" s="10">
+      <c r="L51" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M51" s="10">
         <v>2.72</v>
-      </c>
-      <c r="M51" s="10">
-        <v>7.0000000000000001E-3</v>
       </c>
       <c r="N51" s="10">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="O51" s="10"/>
-      <c r="P51" s="15">
+      <c r="O51" s="10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="15">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="Q51" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R51" s="10" t="s">
         <v>112</v>
       </c>
@@ -6549,10 +6748,13 @@
       <c r="Y51" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z51" s="7"/>
+      <c r="Z51" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA51" s="7"/>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AB51" s="7"/>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" s="16" t="s">
         <v>48</v>
       </c>
@@ -6563,21 +6765,22 @@
         <v>389</v>
       </c>
       <c r="D52" s="16" t="str">
+        <f>[1]!CAS_code(C52)</f>
+        <v>67-56-1</v>
+      </c>
+      <c r="E52" s="16">
         <f>[1]!Props1(C52,"Tcrit")</f>
-        <v>CoolProp error: Your fluid name [Methanol] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
-      </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="G52" s="16">
+        <v>512.6</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H52" s="16">
         <v>2.8</v>
       </c>
-      <c r="H52" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>112</v>
+      <c r="I52" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="J52" s="10" t="s">
         <v>112</v>
@@ -6585,24 +6788,24 @@
       <c r="K52" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L52" s="10">
+      <c r="L52" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M52" s="10">
         <v>1.44</v>
       </c>
-      <c r="M52" s="10">
+      <c r="N52" s="10">
         <v>0.2</v>
       </c>
-      <c r="N52" s="10">
+      <c r="O52" s="10">
         <v>0.1</v>
       </c>
-      <c r="O52" s="10">
+      <c r="P52" s="10">
         <v>0.17799999999999999</v>
       </c>
-      <c r="P52" s="15">
+      <c r="Q52" s="15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q52" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R52" s="10" t="s">
         <v>112</v>
       </c>
@@ -6618,19 +6821,22 @@
       <c r="V52" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="W52" s="15">
+      <c r="W52" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="X52" s="15">
         <v>13698.630136986301</v>
       </c>
-      <c r="X52" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="Y52" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z52" s="7"/>
+      <c r="Z52" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA52" s="7"/>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AB52" s="7"/>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" s="16" t="s">
         <v>49</v>
       </c>
@@ -6640,22 +6846,23 @@
       <c r="C53" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53" s="16" t="str">
+        <f>[1]!CAS_code(C53)</f>
+        <v>112-63-0</v>
+      </c>
+      <c r="E53" s="16">
         <f>[1]!Props1(C53,"Tcrit")</f>
         <v>799</v>
       </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="14" t="s">
-        <v>266</v>
-      </c>
+      <c r="F53" s="16"/>
       <c r="G53" s="14" t="s">
         <v>266</v>
       </c>
       <c r="H53" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="I53" s="10" t="s">
-        <v>112</v>
+      <c r="I53" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="J53" s="10" t="s">
         <v>112</v>
@@ -6664,7 +6871,7 @@
         <v>112</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M53" s="10" t="s">
         <v>266</v>
@@ -6705,10 +6912,13 @@
       <c r="Y53" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="Z53" s="7"/>
+      <c r="Z53" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="AA53" s="7"/>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AB53" s="7"/>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" s="16" t="s">
         <v>50</v>
       </c>
@@ -6718,22 +6928,23 @@
       <c r="C54" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D54" s="16" t="str">
+        <f>[1]!CAS_code(C54)</f>
+        <v>301-00-8</v>
+      </c>
+      <c r="E54" s="16">
         <f>[1]!Props1(C54,"Tcrit")</f>
         <v>772</v>
       </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="14" t="s">
-        <v>266</v>
-      </c>
+      <c r="F54" s="16"/>
       <c r="G54" s="14" t="s">
         <v>266</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="I54" s="10" t="s">
-        <v>112</v>
+      <c r="I54" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="J54" s="10" t="s">
         <v>112</v>
@@ -6742,7 +6953,7 @@
         <v>112</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M54" s="10" t="s">
         <v>266</v>
@@ -6783,10 +6994,13 @@
       <c r="Y54" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="Z54" s="7"/>
+      <c r="Z54" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="AA54" s="7"/>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AB54" s="7"/>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" s="16" t="s">
         <v>51</v>
       </c>
@@ -6796,22 +7010,23 @@
       <c r="C55" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D55" s="16" t="str">
+        <f>[1]!CAS_code(C55)</f>
+        <v>107-46-0</v>
+      </c>
+      <c r="E55" s="16">
         <f>[1]!Props1(C55,"Tcrit")</f>
         <v>518.75</v>
       </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="14" t="s">
-        <v>266</v>
-      </c>
+      <c r="F55" s="16"/>
       <c r="G55" s="14" t="s">
         <v>266</v>
       </c>
       <c r="H55" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="I55" s="10" t="s">
-        <v>112</v>
+      <c r="I55" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="J55" s="10" t="s">
         <v>112</v>
@@ -6820,7 +7035,7 @@
         <v>112</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M55" s="10" t="s">
         <v>266</v>
@@ -6861,10 +7076,13 @@
       <c r="Y55" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="Z55" s="7"/>
+      <c r="Z55" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="AA55" s="7"/>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AB55" s="7"/>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" s="16" t="s">
         <v>52</v>
       </c>
@@ -6874,22 +7092,23 @@
       <c r="C56" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D56" s="16" t="str">
+        <f>[1]!CAS_code(C56)</f>
+        <v>112-62-9</v>
+      </c>
+      <c r="E56" s="16">
         <f>[1]!Props1(C56,"Tcrit")</f>
         <v>782</v>
       </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="14" t="s">
-        <v>266</v>
-      </c>
+      <c r="F56" s="16"/>
       <c r="G56" s="14" t="s">
         <v>266</v>
       </c>
       <c r="H56" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="I56" s="10" t="s">
-        <v>112</v>
+      <c r="I56" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="J56" s="10" t="s">
         <v>112</v>
@@ -6898,7 +7117,7 @@
         <v>112</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M56" s="10" t="s">
         <v>266</v>
@@ -6939,10 +7158,13 @@
       <c r="Y56" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="Z56" s="7"/>
+      <c r="Z56" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="AA56" s="7"/>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AB56" s="7"/>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" s="16" t="s">
         <v>53</v>
       </c>
@@ -6952,22 +7174,23 @@
       <c r="C57" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D57" s="16" t="str">
+        <f>[1]!CAS_code(C57)</f>
+        <v>112-39-0</v>
+      </c>
+      <c r="E57" s="16">
         <f>[1]!Props1(C57,"Tcrit")</f>
         <v>755</v>
       </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="14" t="s">
-        <v>266</v>
-      </c>
+      <c r="F57" s="16"/>
       <c r="G57" s="14" t="s">
         <v>266</v>
       </c>
       <c r="H57" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="I57" s="10" t="s">
-        <v>112</v>
+      <c r="I57" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="J57" s="10" t="s">
         <v>112</v>
@@ -6976,7 +7199,7 @@
         <v>112</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M57" s="10" t="s">
         <v>266</v>
@@ -7017,10 +7240,13 @@
       <c r="Y57" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="Z57" s="7"/>
+      <c r="Z57" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="AA57" s="7"/>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AB57" s="7"/>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" s="16" t="s">
         <v>54</v>
       </c>
@@ -7030,22 +7256,23 @@
       <c r="C58" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D58" s="16" t="str">
+        <f>[1]!CAS_code(C58)</f>
+        <v>112-61-8</v>
+      </c>
+      <c r="E58" s="16">
         <f>[1]!Props1(C58,"Tcrit")</f>
         <v>775</v>
       </c>
-      <c r="E58" s="16"/>
-      <c r="F58" s="14" t="s">
-        <v>266</v>
-      </c>
+      <c r="F58" s="16"/>
       <c r="G58" s="14" t="s">
         <v>266</v>
       </c>
       <c r="H58" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="I58" s="10" t="s">
-        <v>112</v>
+      <c r="I58" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="J58" s="10" t="s">
         <v>112</v>
@@ -7054,7 +7281,7 @@
         <v>112</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M58" s="10" t="s">
         <v>266</v>
@@ -7095,10 +7322,13 @@
       <c r="Y58" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="Z58" s="7"/>
+      <c r="Z58" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="AA58" s="7"/>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AB58" s="7"/>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" s="16" t="s">
         <v>55</v>
       </c>
@@ -7108,23 +7338,24 @@
       <c r="C59" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D59" s="16" t="str">
+        <f>[1]!CAS_code(C59)</f>
+        <v>10024-97-2</v>
+      </c>
+      <c r="E59" s="16">
         <f>[1]!Props1(C59,"Tcrit")</f>
         <v>309.52</v>
       </c>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16">
+      <c r="F59" s="16"/>
+      <c r="G59" s="16">
         <v>290</v>
       </c>
-      <c r="G59" s="16">
+      <c r="H59" s="16">
         <v>320</v>
       </c>
-      <c r="H59" s="16">
+      <c r="I59" s="16">
         <v>180</v>
       </c>
-      <c r="I59" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="J59" s="10" t="s">
         <v>112</v>
       </c>
@@ -7132,7 +7363,7 @@
         <v>112</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M59" s="10" t="s">
         <v>266</v>
@@ -7147,7 +7378,7 @@
         <v>266</v>
       </c>
       <c r="Q59" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="R59" s="10" t="s">
         <v>112</v>
@@ -7173,10 +7404,13 @@
       <c r="Y59" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z59" s="7"/>
+      <c r="Z59" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA59" s="7"/>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AB59" s="7"/>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60" s="16" t="s">
         <v>56</v>
       </c>
@@ -7186,23 +7420,24 @@
       <c r="C60" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="16" t="str">
+        <f>[1]!CAS_code(C60)</f>
+        <v>7440-01-9</v>
+      </c>
+      <c r="E60" s="16">
         <f>[1]!Props1(C60,"Tcrit")</f>
         <v>44.491799999999998</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="F60" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="F60" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="G60" s="16" t="s">
         <v>112</v>
       </c>
       <c r="H60" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I60" s="10" t="s">
+      <c r="I60" s="16" t="s">
         <v>112</v>
       </c>
       <c r="J60" s="10" t="s">
@@ -7212,7 +7447,7 @@
         <v>112</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M60" s="10" t="s">
         <v>266</v>
@@ -7227,7 +7462,7 @@
         <v>266</v>
       </c>
       <c r="Q60" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="R60" s="10" t="s">
         <v>112</v>
@@ -7253,10 +7488,13 @@
       <c r="Y60" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z60" s="7"/>
+      <c r="Z60" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA60" s="7"/>
-    </row>
-    <row r="61" spans="1:27">
+      <c r="AB60" s="7"/>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61" s="16" t="s">
         <v>57</v>
       </c>
@@ -7266,22 +7504,23 @@
       <c r="C61" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61" s="16" t="str">
+        <f>[1]!CAS_code(C61)</f>
+        <v>463-82-1</v>
+      </c>
+      <c r="E61" s="16">
         <f>[1]!Props1(C61,"Tcrit")</f>
         <v>433.74</v>
       </c>
-      <c r="E61" s="16"/>
-      <c r="F61" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="F61" s="16"/>
       <c r="G61" s="11" t="s">
         <v>113</v>
       </c>
       <c r="H61" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I61" s="10" t="s">
-        <v>112</v>
+      <c r="I61" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="J61" s="10" t="s">
         <v>112</v>
@@ -7289,24 +7528,24 @@
       <c r="K61" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L61" s="10">
+      <c r="L61" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M61" s="10">
         <v>2.25</v>
       </c>
-      <c r="M61" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="N61" s="10" t="s">
         <v>112</v>
       </c>
       <c r="O61" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P61" s="15">
+      <c r="P61" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q61" s="15">
         <v>0.17299999999999999</v>
       </c>
-      <c r="Q61" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R61" s="10" t="s">
         <v>112</v>
       </c>
@@ -7331,10 +7570,13 @@
       <c r="Y61" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z61" s="7"/>
+      <c r="Z61" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA61" s="7"/>
-    </row>
-    <row r="62" spans="1:27">
+      <c r="AB61" s="7"/>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" s="16" t="s">
         <v>58</v>
       </c>
@@ -7345,22 +7587,23 @@
         <v>398</v>
       </c>
       <c r="D62" s="16" t="str">
+        <f>[1]!CAS_code(C62)</f>
+        <v>Fluid name invalid</v>
+      </c>
+      <c r="E62" s="16" t="str">
         <f>[1]!Props1(C62,"Tcrit")</f>
-        <v>CoolProp error: Your fluid name [NitrogenTrifluoride] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
-      </c>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16">
+        <v>CoolProp error: Fluid "NitrogenTrifluoride" is an invalid fluid</v>
+      </c>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16">
         <v>12300</v>
       </c>
-      <c r="G62" s="16">
+      <c r="H62" s="16">
         <v>17200</v>
       </c>
-      <c r="H62" s="16">
+      <c r="I62" s="16">
         <v>20700</v>
       </c>
-      <c r="I62" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="J62" s="10" t="s">
         <v>112</v>
       </c>
@@ -7368,10 +7611,10 @@
         <v>112</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N62" s="10" t="s">
         <v>112</v>
@@ -7379,10 +7622,10 @@
       <c r="O62" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="P62" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q62" s="10"/>
       <c r="R62" s="10" t="s">
         <v>112</v>
       </c>
@@ -7407,10 +7650,13 @@
       <c r="Y62" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z62" s="7"/>
+      <c r="Z62" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA62" s="7"/>
-    </row>
-    <row r="63" spans="1:27">
+      <c r="AB62" s="7"/>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63" s="16" t="s">
         <v>59</v>
       </c>
@@ -7420,23 +7666,24 @@
       <c r="C63" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D63" s="16" t="str">
+        <f>[1]!CAS_code(C63)</f>
+        <v>7727-37-9</v>
+      </c>
+      <c r="E63" s="16">
         <f>[1]!Props1(C63,"Tcrit")</f>
         <v>126.19199999999999</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="F63" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="F63" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="G63" s="16" t="s">
         <v>112</v>
       </c>
       <c r="H63" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I63" s="10" t="s">
+      <c r="I63" s="16" t="s">
         <v>112</v>
       </c>
       <c r="J63" s="10" t="s">
@@ -7446,10 +7693,10 @@
         <v>112</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M63" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N63" s="10" t="s">
         <v>112</v>
@@ -7457,10 +7704,10 @@
       <c r="O63" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="P63" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q63" s="10"/>
       <c r="R63" s="10" t="s">
         <v>112</v>
       </c>
@@ -7485,10 +7732,13 @@
       <c r="Y63" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z63" s="7"/>
+      <c r="Z63" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA63" s="7"/>
-    </row>
-    <row r="64" spans="1:27">
+      <c r="AB63" s="7"/>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64" s="16" t="s">
         <v>60</v>
       </c>
@@ -7496,24 +7746,25 @@
         <v>271</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="D64" s="16">
+        <v>419</v>
+      </c>
+      <c r="D64" s="16" t="str">
+        <f>[1]!CAS_code(C64)</f>
+        <v>111-84-2</v>
+      </c>
+      <c r="E64" s="16">
         <f>[1]!Props1(C64,"Tcrit")</f>
         <v>594.54999999999995</v>
       </c>
-      <c r="E64" s="16"/>
-      <c r="F64" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="F64" s="16"/>
       <c r="G64" s="11" t="s">
         <v>113</v>
       </c>
       <c r="H64" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I64" s="10" t="s">
-        <v>112</v>
+      <c r="I64" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="J64" s="10" t="s">
         <v>112</v>
@@ -7521,24 +7772,24 @@
       <c r="K64" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L64" s="10">
+      <c r="L64" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M64" s="10">
         <v>2.29</v>
       </c>
-      <c r="M64" s="10">
+      <c r="N64" s="10">
         <v>0.4</v>
       </c>
-      <c r="N64" s="10">
+      <c r="O64" s="10">
         <v>0.5</v>
       </c>
-      <c r="O64" s="10">
+      <c r="P64" s="10">
         <v>0.46300000000000002</v>
       </c>
-      <c r="P64" s="15">
+      <c r="Q64" s="15">
         <v>0.41399999999999998</v>
       </c>
-      <c r="Q64" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R64" s="10" t="s">
         <v>112</v>
       </c>
@@ -7563,10 +7814,13 @@
       <c r="Y64" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z64" s="7"/>
+      <c r="Z64" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA64" s="7"/>
-    </row>
-    <row r="65" spans="1:27">
+      <c r="AB64" s="7"/>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65" s="16" t="s">
         <v>61</v>
       </c>
@@ -7574,24 +7828,25 @@
         <v>272</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D65" s="16">
+        <v>400</v>
+      </c>
+      <c r="D65" s="16" t="str">
+        <f>[1]!CAS_code(C65)</f>
+        <v>111-65-9</v>
+      </c>
+      <c r="E65" s="16">
         <f>[1]!Props1(C65,"Tcrit")</f>
         <v>569.32000000000005</v>
       </c>
-      <c r="E65" s="16"/>
-      <c r="F65" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="F65" s="16"/>
       <c r="G65" s="11" t="s">
         <v>113</v>
       </c>
       <c r="H65" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I65" s="10" t="s">
-        <v>112</v>
+      <c r="I65" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="J65" s="10" t="s">
         <v>112</v>
@@ -7599,24 +7854,24 @@
       <c r="K65" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L65" s="10">
+      <c r="L65" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M65" s="10">
         <v>2.41</v>
-      </c>
-      <c r="M65" s="10">
-        <v>0.5</v>
       </c>
       <c r="N65" s="10">
         <v>0.5</v>
       </c>
       <c r="O65" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="P65" s="10">
         <v>0.54400000000000004</v>
       </c>
-      <c r="P65" s="15">
+      <c r="Q65" s="15">
         <v>0.45300000000000001</v>
       </c>
-      <c r="Q65" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R65" s="10" t="s">
         <v>112</v>
       </c>
@@ -7641,10 +7896,13 @@
       <c r="Y65" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z65" s="7"/>
+      <c r="Z65" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA65" s="7"/>
-    </row>
-    <row r="66" spans="1:27">
+      <c r="AB65" s="7"/>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66" s="16" t="s">
         <v>62</v>
       </c>
@@ -7652,23 +7910,24 @@
         <v>159</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="D66" s="16">
+        <v>417</v>
+      </c>
+      <c r="D66" s="16" t="str">
+        <f>[1]!CAS_code(C66)</f>
+        <v>1333-74-0o</v>
+      </c>
+      <c r="E66" s="16">
         <f>[1]!Props1(C66,"Tcrit")</f>
         <v>33.22</v>
       </c>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16" t="s">
-        <v>112</v>
-      </c>
+      <c r="F66" s="16"/>
       <c r="G66" s="16" t="s">
         <v>112</v>
       </c>
       <c r="H66" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I66" s="10" t="s">
+      <c r="I66" s="16" t="s">
         <v>112</v>
       </c>
       <c r="J66" s="10" t="s">
@@ -7678,10 +7937,10 @@
         <v>112</v>
       </c>
       <c r="L66" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M66" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N66" s="10" t="s">
         <v>112</v>
@@ -7719,10 +7978,13 @@
       <c r="Y66" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z66" s="7"/>
+      <c r="Z66" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA66" s="7"/>
-    </row>
-    <row r="67" spans="1:27">
+      <c r="AB66" s="7"/>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67" s="16" t="s">
         <v>63</v>
       </c>
@@ -7730,23 +7992,24 @@
         <v>273</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="D67" s="16">
+        <v>401</v>
+      </c>
+      <c r="D67" s="16" t="str">
+        <f>[1]!CAS_code(C67)</f>
+        <v>7782-44-7</v>
+      </c>
+      <c r="E67" s="16">
         <f>[1]!Props1(C67,"Tcrit")</f>
         <v>154.58099999999999</v>
       </c>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16" t="s">
-        <v>112</v>
-      </c>
+      <c r="F67" s="16"/>
       <c r="G67" s="16" t="s">
         <v>112</v>
       </c>
       <c r="H67" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I67" s="10" t="s">
+      <c r="I67" s="16" t="s">
         <v>112</v>
       </c>
       <c r="J67" s="10" t="s">
@@ -7756,10 +8019,10 @@
         <v>112</v>
       </c>
       <c r="L67" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M67" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N67" s="10" t="s">
         <v>112</v>
@@ -7797,10 +8060,13 @@
       <c r="Y67" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z67" s="7"/>
+      <c r="Z67" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA67" s="7"/>
-    </row>
-    <row r="68" spans="1:27">
+      <c r="AB67" s="7"/>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68" s="16" t="s">
         <v>64</v>
       </c>
@@ -7808,23 +8074,24 @@
         <v>158</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="D68" s="16">
+        <v>418</v>
+      </c>
+      <c r="D68" s="16" t="str">
+        <f>[1]!CAS_code(C68)</f>
+        <v>1333-74-0p</v>
+      </c>
+      <c r="E68" s="16">
         <f>[1]!Props1(C68,"Tcrit")</f>
         <v>32.938000000000002</v>
       </c>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16" t="s">
-        <v>112</v>
-      </c>
+      <c r="F68" s="16"/>
       <c r="G68" s="16" t="s">
         <v>112</v>
       </c>
       <c r="H68" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I68" s="10" t="s">
+      <c r="I68" s="16" t="s">
         <v>112</v>
       </c>
       <c r="J68" s="10" t="s">
@@ -7834,10 +8101,10 @@
         <v>112</v>
       </c>
       <c r="L68" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M68" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N68" s="10" t="s">
         <v>112</v>
@@ -7875,10 +8142,13 @@
       <c r="Y68" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z68" s="7"/>
+      <c r="Z68" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA68" s="7"/>
-    </row>
-    <row r="69" spans="1:27">
+      <c r="AB68" s="7"/>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69" s="16" t="s">
         <v>65</v>
       </c>
@@ -7886,17 +8156,18 @@
         <v>274</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="D69" s="16">
+        <v>402</v>
+      </c>
+      <c r="D69" s="16" t="str">
+        <f>[1]!CAS_code(C69)</f>
+        <v>109-66-0</v>
+      </c>
+      <c r="E69" s="16">
         <f>[1]!Props1(C69,"Tcrit")</f>
         <v>469.7</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="F69" s="16" t="s">
         <v>233</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>113</v>
@@ -7904,8 +8175,8 @@
       <c r="H69" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I69" s="10" t="s">
-        <v>112</v>
+      <c r="I69" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="J69" s="10" t="s">
         <v>112</v>
@@ -7914,23 +8185,23 @@
         <v>112</v>
       </c>
       <c r="L69" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="M69" s="10">
+        <v>112</v>
+      </c>
+      <c r="M69" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="N69" s="10">
         <v>0.3</v>
       </c>
-      <c r="N69" s="10">
+      <c r="O69" s="10">
         <v>0.4</v>
       </c>
-      <c r="O69" s="10">
+      <c r="P69" s="10">
         <v>0.38700000000000001</v>
       </c>
-      <c r="P69" s="15">
+      <c r="Q69" s="15">
         <v>0.39500000000000002</v>
       </c>
-      <c r="Q69" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R69" s="10" t="s">
         <v>112</v>
       </c>
@@ -7955,10 +8226,13 @@
       <c r="Y69" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z69" s="7"/>
+      <c r="Z69" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA69" s="7"/>
-    </row>
-    <row r="70" spans="1:27">
+      <c r="AB69" s="7"/>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70" s="16" t="s">
         <v>66</v>
       </c>
@@ -7966,51 +8240,52 @@
         <v>275</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="D70" s="16">
+        <v>403</v>
+      </c>
+      <c r="D70" s="16" t="str">
+        <f>[1]!CAS_code(C70)</f>
+        <v>74-98-6</v>
+      </c>
+      <c r="E70" s="16">
         <f>[1]!Props1(C70,"Tcrit")</f>
         <v>369.89</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="F70" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="F70" s="11" t="s">
+      <c r="G70" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G70" s="16">
+      <c r="H70" s="16">
         <v>3</v>
       </c>
-      <c r="H70" s="11" t="s">
+      <c r="I70" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I70" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="J70" s="10" t="s">
         <v>112</v>
       </c>
       <c r="K70" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L70" s="10">
+      <c r="L70" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M70" s="10">
         <v>2.2400000000000002</v>
       </c>
-      <c r="M70" s="10">
+      <c r="N70" s="10">
         <v>0.5</v>
       </c>
-      <c r="N70" s="10">
+      <c r="O70" s="10">
         <v>0.4</v>
       </c>
-      <c r="O70" s="10">
+      <c r="P70" s="10">
         <v>0.51800000000000002</v>
       </c>
-      <c r="P70" s="15">
+      <c r="Q70" s="15">
         <v>0.17599999999999999</v>
       </c>
-      <c r="Q70" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R70" s="10" t="s">
         <v>112</v>
       </c>
@@ -8035,10 +8310,13 @@
       <c r="Y70" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z70" s="7"/>
+      <c r="Z70" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA70" s="7"/>
-    </row>
-    <row r="71" spans="1:27">
+      <c r="AB70" s="7"/>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71" s="16" t="s">
         <v>67</v>
       </c>
@@ -8046,49 +8324,50 @@
         <v>278</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="D71" s="16">
+        <v>404</v>
+      </c>
+      <c r="D71" s="16" t="str">
+        <f>[1]!CAS_code(C71)</f>
+        <v>115-07-1</v>
+      </c>
+      <c r="E71" s="16">
         <f>[1]!Props1(C71,"Tcrit")</f>
         <v>364.21100000000001</v>
       </c>
-      <c r="E71" s="16"/>
-      <c r="F71" s="11" t="s">
+      <c r="F71" s="16"/>
+      <c r="G71" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G71" s="16">
+      <c r="H71" s="16">
         <v>3.1</v>
       </c>
-      <c r="H71" s="11" t="s">
+      <c r="I71" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I71" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="J71" s="10" t="s">
         <v>112</v>
       </c>
       <c r="K71" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L71" s="10">
+      <c r="L71" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M71" s="10">
         <v>2.64</v>
       </c>
-      <c r="M71" s="10">
+      <c r="N71" s="10">
         <v>0.6</v>
       </c>
-      <c r="N71" s="10">
+      <c r="O71" s="10">
         <v>1</v>
       </c>
-      <c r="O71" s="10">
+      <c r="P71" s="10">
         <v>1.06</v>
       </c>
-      <c r="P71" s="15">
+      <c r="Q71" s="15">
         <v>1.123</v>
       </c>
-      <c r="Q71" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R71" s="10" t="s">
         <v>112</v>
       </c>
@@ -8113,10 +8392,13 @@
       <c r="Y71" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z71" s="7"/>
+      <c r="Z71" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA71" s="7"/>
-    </row>
-    <row r="72" spans="1:27">
+      <c r="AB71" s="7"/>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72" s="16" t="s">
         <v>68</v>
       </c>
@@ -8124,24 +8406,25 @@
         <v>280</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D72" s="16" t="str">
+        <f>[1]!CAS_code(C72)</f>
+        <v>74-99-7</v>
+      </c>
+      <c r="E72" s="16">
         <f>[1]!Props1(C72,"Tcrit")</f>
-        <v>CoolProp error: Your fluid name [Propyne] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
-      </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="11" t="s">
-        <v>113</v>
-      </c>
+        <v>402.38</v>
+      </c>
+      <c r="F72" s="10"/>
       <c r="G72" s="11" t="s">
         <v>113</v>
       </c>
       <c r="H72" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I72" s="10" t="s">
-        <v>112</v>
+      <c r="I72" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="J72" s="10" t="s">
         <v>112</v>
@@ -8150,7 +8433,7 @@
         <v>112</v>
       </c>
       <c r="L72" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M72" s="10" t="s">
         <v>266</v>
@@ -8191,10 +8474,13 @@
       <c r="Y72" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="Z72" s="7"/>
+      <c r="Z72" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="AA72" s="7"/>
-    </row>
-    <row r="73" spans="1:27" s="55" customFormat="1">
+      <c r="AB72" s="7"/>
+    </row>
+    <row r="73" spans="1:28" s="55" customFormat="1">
       <c r="A73" s="53" t="s">
         <v>69</v>
       </c>
@@ -8204,24 +8490,25 @@
       <c r="C73" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="D73" s="53">
+      <c r="D73" s="16" t="str">
+        <f>[1]!CAS_code(C73)</f>
+        <v>75-69-4</v>
+      </c>
+      <c r="E73" s="53">
         <f>[1]!Props1(C73,"Tcrit")</f>
         <v>471.06</v>
       </c>
-      <c r="E73" s="53" t="s">
+      <c r="F73" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="F73" s="53">
+      <c r="G73" s="53">
         <v>6730</v>
       </c>
-      <c r="G73" s="53">
+      <c r="H73" s="53">
         <v>4750</v>
       </c>
-      <c r="H73" s="53">
+      <c r="I73" s="53">
         <v>1620</v>
-      </c>
-      <c r="I73" s="53">
-        <v>1</v>
       </c>
       <c r="J73" s="53">
         <v>1</v>
@@ -8230,11 +8517,11 @@
         <v>1</v>
       </c>
       <c r="L73" s="53">
+        <v>1</v>
+      </c>
+      <c r="M73" s="53">
         <v>541</v>
       </c>
-      <c r="M73" s="53" t="s">
-        <v>112</v>
-      </c>
       <c r="N73" s="53" t="s">
         <v>112</v>
       </c>
@@ -8271,10 +8558,13 @@
       <c r="Y73" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="Z73" s="54"/>
+      <c r="Z73" s="53" t="s">
+        <v>112</v>
+      </c>
       <c r="AA73" s="54"/>
-    </row>
-    <row r="74" spans="1:27">
+      <c r="AB73" s="54"/>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74" s="16" t="s">
         <v>70</v>
       </c>
@@ -8285,36 +8575,37 @@
         <v>70</v>
       </c>
       <c r="D74" s="16" t="str">
+        <f>[1]!CAS_code(C74)</f>
+        <v>76-13-1</v>
+      </c>
+      <c r="E74" s="16">
         <f>[1]!Props1(C74,"Tcrit")</f>
-        <v>CoolProp error: Your fluid name [R113] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
-      </c>
-      <c r="E74" s="16" t="s">
+        <v>487.21</v>
+      </c>
+      <c r="F74" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="F74" s="16">
+      <c r="G74" s="16">
         <v>6540</v>
       </c>
-      <c r="G74" s="16">
+      <c r="H74" s="16">
         <v>6130</v>
       </c>
-      <c r="H74" s="16">
+      <c r="I74" s="16">
         <v>2700</v>
-      </c>
-      <c r="I74" s="16">
-        <v>0.8</v>
       </c>
       <c r="J74" s="16">
         <v>0.8</v>
       </c>
       <c r="K74" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="L74" s="16">
         <v>1</v>
       </c>
-      <c r="L74" s="10">
+      <c r="M74" s="10">
         <v>659</v>
       </c>
-      <c r="M74" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="N74" s="10" t="s">
         <v>112</v>
       </c>
@@ -8351,10 +8642,13 @@
       <c r="Y74" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z74" s="7"/>
+      <c r="Z74" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA74" s="7"/>
-    </row>
-    <row r="75" spans="1:27">
+      <c r="AB74" s="7"/>
+    </row>
+    <row r="75" spans="1:28">
       <c r="A75" s="16" t="s">
         <v>71</v>
       </c>
@@ -8365,23 +8659,24 @@
         <v>71</v>
       </c>
       <c r="D75" s="16" t="str">
+        <f>[1]!CAS_code(C75)</f>
+        <v>76-14-2</v>
+      </c>
+      <c r="E75" s="16">
         <f>[1]!Props1(C75,"Tcrit")</f>
-        <v>CoolProp error: Your fluid name [R114] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
-      </c>
-      <c r="E75" s="16" t="s">
+        <v>418.83</v>
+      </c>
+      <c r="F75" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="F75" s="16">
+      <c r="G75" s="16">
         <v>8040</v>
       </c>
-      <c r="G75" s="16">
+      <c r="H75" s="16">
         <v>10000</v>
       </c>
-      <c r="H75" s="16">
+      <c r="I75" s="16">
         <v>8730</v>
-      </c>
-      <c r="I75" s="16">
-        <v>1</v>
       </c>
       <c r="J75" s="16">
         <v>1</v>
@@ -8389,12 +8684,12 @@
       <c r="K75" s="16">
         <v>1</v>
       </c>
-      <c r="L75" s="10">
+      <c r="L75" s="16">
+        <v>1</v>
+      </c>
+      <c r="M75" s="10">
         <v>1110</v>
       </c>
-      <c r="M75" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="N75" s="10" t="s">
         <v>112</v>
       </c>
@@ -8431,10 +8726,13 @@
       <c r="Y75" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z75" s="7"/>
+      <c r="Z75" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA75" s="7"/>
-    </row>
-    <row r="76" spans="1:27">
+      <c r="AB75" s="7"/>
+    </row>
+    <row r="76" spans="1:28">
       <c r="A76" s="16" t="s">
         <v>72</v>
       </c>
@@ -8445,36 +8743,37 @@
         <v>72</v>
       </c>
       <c r="D76" s="16" t="str">
+        <f>[1]!CAS_code(C76)</f>
+        <v>Fluid name invalid</v>
+      </c>
+      <c r="E76" s="16" t="str">
         <f>[1]!Props1(C76,"Tcrit")</f>
-        <v>CoolProp error: Your fluid name [R115] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
-      </c>
-      <c r="E76" s="16" t="s">
+        <v>CoolProp error: Fluid "R115" is an invalid fluid</v>
+      </c>
+      <c r="F76" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="F76" s="16">
+      <c r="G76" s="16">
         <v>5310</v>
       </c>
-      <c r="G76" s="16">
+      <c r="H76" s="16">
         <v>7370</v>
       </c>
-      <c r="H76" s="16">
+      <c r="I76" s="16">
         <v>9990</v>
-      </c>
-      <c r="I76" s="16">
-        <v>0.6</v>
       </c>
       <c r="J76" s="16">
         <v>0.6</v>
       </c>
       <c r="K76" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="L76" s="16">
         <v>0.44</v>
       </c>
-      <c r="L76" s="10">
+      <c r="M76" s="10">
         <v>1080</v>
       </c>
-      <c r="M76" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="N76" s="10" t="s">
         <v>112</v>
       </c>
@@ -8511,10 +8810,13 @@
       <c r="Y76" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z76" s="7"/>
+      <c r="Z76" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA76" s="7"/>
-    </row>
-    <row r="77" spans="1:27">
+      <c r="AB76" s="7"/>
+    </row>
+    <row r="77" spans="1:28">
       <c r="A77" s="16" t="s">
         <v>73</v>
       </c>
@@ -8524,24 +8826,25 @@
       <c r="C77" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D77" s="16" t="str">
+        <f>[1]!CAS_code(C77)</f>
+        <v>76-16-4</v>
+      </c>
+      <c r="E77" s="16">
         <f>[1]!Props1(C77,"Tcrit")</f>
         <v>293.02999999999997</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="F77" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="F77" s="16" t="s">
-        <v>266</v>
-      </c>
       <c r="G77" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H77" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="H77" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="I77" s="10" t="s">
-        <v>112</v>
+      <c r="I77" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="J77" s="10" t="s">
         <v>112</v>
@@ -8549,12 +8852,12 @@
       <c r="K77" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L77" s="10">
+      <c r="L77" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M77" s="10">
         <v>1380</v>
       </c>
-      <c r="M77" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="N77" s="10" t="s">
         <v>112</v>
       </c>
@@ -8591,10 +8894,13 @@
       <c r="Y77" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z77" s="7"/>
+      <c r="Z77" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA77" s="7"/>
-    </row>
-    <row r="78" spans="1:27">
+      <c r="AB77" s="7"/>
+    </row>
+    <row r="78" spans="1:28">
       <c r="A78" s="16" t="s">
         <v>74</v>
       </c>
@@ -8605,23 +8911,24 @@
         <v>74</v>
       </c>
       <c r="D78" s="16" t="str">
+        <f>[1]!CAS_code(C78)</f>
+        <v>75-71-8</v>
+      </c>
+      <c r="E78" s="16">
         <f>[1]!Props1(C78,"Tcrit")</f>
-        <v>CoolProp error: Your fluid name [R12] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
-      </c>
-      <c r="E78" s="16" t="s">
+        <v>385.12</v>
+      </c>
+      <c r="F78" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="F78" s="16">
+      <c r="G78" s="16">
         <v>11000</v>
       </c>
-      <c r="G78" s="16">
+      <c r="H78" s="16">
         <v>10900</v>
       </c>
-      <c r="H78" s="16">
+      <c r="I78" s="16">
         <v>5200</v>
-      </c>
-      <c r="I78" s="16">
-        <v>1</v>
       </c>
       <c r="J78" s="16">
         <v>1</v>
@@ -8629,12 +8936,12 @@
       <c r="K78" s="16">
         <v>1</v>
       </c>
-      <c r="L78" s="10">
+      <c r="L78" s="16">
+        <v>1</v>
+      </c>
+      <c r="M78" s="10">
         <v>1040</v>
       </c>
-      <c r="M78" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="N78" s="10" t="s">
         <v>112</v>
       </c>
@@ -8671,10 +8978,13 @@
       <c r="Y78" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z78" s="7"/>
+      <c r="Z78" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA78" s="7"/>
-    </row>
-    <row r="79" spans="1:27">
+      <c r="AB78" s="7"/>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79" s="16" t="s">
         <v>75</v>
       </c>
@@ -8684,24 +8994,25 @@
       <c r="C79" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D79" s="16" t="str">
+        <f>[1]!CAS_code(C79)</f>
+        <v>306-83-2</v>
+      </c>
+      <c r="E79" s="16">
         <f>[1]!Props1(C79,"Tcrit")</f>
         <v>456.82</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="F79" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="F79" s="16">
+      <c r="G79" s="16">
         <v>273</v>
       </c>
-      <c r="G79" s="16">
+      <c r="H79" s="16">
         <v>77</v>
       </c>
-      <c r="H79" s="16">
+      <c r="I79" s="16">
         <v>24</v>
-      </c>
-      <c r="I79" s="16">
-        <v>0.02</v>
       </c>
       <c r="J79" s="16">
         <v>0.02</v>
@@ -8709,12 +9020,12 @@
       <c r="K79" s="16">
         <v>0.02</v>
       </c>
-      <c r="L79" s="10">
+      <c r="L79" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="M79" s="10">
         <v>12.3</v>
       </c>
-      <c r="M79" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="N79" s="10" t="s">
         <v>112</v>
       </c>
@@ -8751,10 +9062,13 @@
       <c r="Y79" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z79" s="7"/>
+      <c r="Z79" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA79" s="7"/>
-    </row>
-    <row r="80" spans="1:27">
+      <c r="AB79" s="7"/>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80" s="16" t="s">
         <v>76</v>
       </c>
@@ -8762,26 +9076,27 @@
         <v>136</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="D80" s="16">
+        <v>406</v>
+      </c>
+      <c r="D80" s="16" t="str">
+        <f>[1]!CAS_code(C80)</f>
+        <v>754-12-1</v>
+      </c>
+      <c r="E80" s="16">
         <f>[1]!Props1(C80,"Tcrit")</f>
         <v>367.85</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="F80" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="F80" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="G80" s="16">
+      <c r="G80" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H80" s="16">
         <v>4</v>
       </c>
-      <c r="H80" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="I80" s="10" t="s">
-        <v>112</v>
+      <c r="I80" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="J80" s="10" t="s">
         <v>112</v>
@@ -8790,10 +9105,10 @@
         <v>112</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N80" s="10" t="s">
         <v>112</v>
@@ -8831,10 +9146,13 @@
       <c r="Y80" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z80" s="7"/>
+      <c r="Z80" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA80" s="7"/>
-    </row>
-    <row r="81" spans="1:27">
+      <c r="AB80" s="7"/>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81" s="16" t="s">
         <v>77</v>
       </c>
@@ -8842,26 +9160,27 @@
         <v>137</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="D81" s="16">
+        <v>407</v>
+      </c>
+      <c r="D81" s="16" t="str">
+        <f>[1]!CAS_code(C81)</f>
+        <v>Fluid name invalid</v>
+      </c>
+      <c r="E81" s="16" t="str">
         <f>[1]!Props1(C81,"Tcrit")</f>
-        <v>382.52</v>
-      </c>
-      <c r="E81" s="16" t="s">
+        <v>CoolProp error: Fluid "R1234ze" is an invalid fluid</v>
+      </c>
+      <c r="F81" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="F81" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="G81" s="16">
+      <c r="G81" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H81" s="16">
         <v>6</v>
       </c>
-      <c r="H81" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="I81" s="10" t="s">
-        <v>112</v>
+      <c r="I81" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="J81" s="10" t="s">
         <v>112</v>
@@ -8870,10 +9189,10 @@
         <v>112</v>
       </c>
       <c r="L81" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M81" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N81" s="10" t="s">
         <v>112</v>
@@ -8911,10 +9230,13 @@
       <c r="Y81" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z81" s="7"/>
+      <c r="Z81" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA81" s="7"/>
-    </row>
-    <row r="82" spans="1:27">
+      <c r="AB81" s="7"/>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82" s="16" t="s">
         <v>78</v>
       </c>
@@ -8924,24 +9246,25 @@
       <c r="C82" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D82" s="16" t="str">
+        <f>[1]!CAS_code(C82)</f>
+        <v>2837-89-0</v>
+      </c>
+      <c r="E82" s="16">
         <f>[1]!Props1(C82,"Tcrit")</f>
         <v>395.42500000000001</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="F82" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="F82" s="16">
+      <c r="G82" s="16">
         <v>2070</v>
       </c>
-      <c r="G82" s="16">
+      <c r="H82" s="16">
         <v>609</v>
       </c>
-      <c r="H82" s="16">
+      <c r="I82" s="16">
         <v>185</v>
-      </c>
-      <c r="I82" s="16">
-        <v>2.1999999999999999E-2</v>
       </c>
       <c r="J82" s="16">
         <v>2.1999999999999999E-2</v>
@@ -8949,12 +9272,12 @@
       <c r="K82" s="16">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="L82" s="10">
+      <c r="L82" s="16">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M82" s="10">
         <v>55.3</v>
       </c>
-      <c r="M82" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="N82" s="10" t="s">
         <v>112</v>
       </c>
@@ -8991,10 +9314,13 @@
       <c r="Y82" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z82" s="7"/>
+      <c r="Z82" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA82" s="7"/>
-    </row>
-    <row r="83" spans="1:27">
+      <c r="AB82" s="7"/>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83" s="16" t="s">
         <v>79</v>
       </c>
@@ -9004,37 +9330,38 @@
       <c r="C83" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D83" s="16">
+      <c r="D83" s="16" t="str">
+        <f>[1]!CAS_code(C83)</f>
+        <v>354-33-6</v>
+      </c>
+      <c r="E83" s="16">
         <f>[1]!Props1(C83,"Tcrit")</f>
         <v>339.173</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="F83" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="F83" s="16">
+      <c r="G83" s="16">
         <v>6350</v>
       </c>
-      <c r="G83" s="16">
+      <c r="H83" s="16">
         <v>3500</v>
       </c>
-      <c r="H83" s="16">
+      <c r="I83" s="16">
         <v>1100</v>
       </c>
-      <c r="I83" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="J83" s="10" t="s">
         <v>112</v>
       </c>
       <c r="K83" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L83" s="10">
+      <c r="L83" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M83" s="10">
         <v>354</v>
       </c>
-      <c r="M83" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="N83" s="10" t="s">
         <v>112</v>
       </c>
@@ -9071,10 +9398,13 @@
       <c r="Y83" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z83" s="7"/>
+      <c r="Z83" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA83" s="7"/>
-    </row>
-    <row r="84" spans="1:27">
+      <c r="AB83" s="7"/>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84" s="16" t="s">
         <v>80</v>
       </c>
@@ -9085,36 +9415,37 @@
         <v>80</v>
       </c>
       <c r="D84" s="16" t="str">
+        <f>[1]!CAS_code(C84)</f>
+        <v>75-72-9</v>
+      </c>
+      <c r="E84" s="16">
         <f>[1]!Props1(C84,"Tcrit")</f>
-        <v>CoolProp error: Your fluid name [R13] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
-      </c>
-      <c r="E84" s="16" t="s">
+        <v>301.88</v>
+      </c>
+      <c r="F84" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="F84" s="16">
+      <c r="G84" s="16">
         <v>10800</v>
       </c>
-      <c r="G84" s="16">
+      <c r="H84" s="16">
         <v>14400</v>
       </c>
-      <c r="H84" s="16">
+      <c r="I84" s="16">
         <v>16400</v>
-      </c>
-      <c r="I84" s="16">
-        <v>1</v>
       </c>
       <c r="J84" s="16">
         <v>1</v>
       </c>
-      <c r="K84" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L84" s="10">
+      <c r="K84" s="16">
+        <v>1</v>
+      </c>
+      <c r="L84" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="M84" s="10">
         <v>1390</v>
       </c>
-      <c r="M84" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="N84" s="10" t="s">
         <v>112</v>
       </c>
@@ -9151,10 +9482,13 @@
       <c r="Y84" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z84" s="7"/>
+      <c r="Z84" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA84" s="7"/>
-    </row>
-    <row r="85" spans="1:27">
+      <c r="AB84" s="7"/>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85" s="16" t="s">
         <v>81</v>
       </c>
@@ -9162,39 +9496,40 @@
         <v>141</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="D85" s="16">
+        <v>408</v>
+      </c>
+      <c r="D85" s="16" t="str">
+        <f>[1]!CAS_code(C85)</f>
+        <v>811-97-2</v>
+      </c>
+      <c r="E85" s="16">
         <f>[1]!Props1(C85,"Tcrit")</f>
         <v>374.21</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="F85" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="F85" s="16">
+      <c r="G85" s="16">
         <v>3830</v>
       </c>
-      <c r="G85" s="16">
+      <c r="H85" s="16">
         <v>1430</v>
       </c>
-      <c r="H85" s="16">
+      <c r="I85" s="16">
         <v>435</v>
       </c>
-      <c r="I85" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="J85" s="10" t="s">
         <v>112</v>
       </c>
       <c r="K85" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L85" s="10">
+      <c r="L85" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M85" s="10">
         <v>144</v>
       </c>
-      <c r="M85" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="N85" s="10" t="s">
         <v>112</v>
       </c>
@@ -9231,10 +9566,13 @@
       <c r="Y85" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z85" s="7"/>
+      <c r="Z85" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA85" s="7"/>
-    </row>
-    <row r="86" spans="1:27">
+      <c r="AB85" s="7"/>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86" s="16" t="s">
         <v>82</v>
       </c>
@@ -9245,36 +9583,37 @@
         <v>82</v>
       </c>
       <c r="D86" s="16" t="str">
+        <f>[1]!CAS_code(C86)</f>
+        <v>75-73-0</v>
+      </c>
+      <c r="E86" s="16">
         <f>[1]!Props1(C86,"Tcrit")</f>
-        <v>CoolProp error: Your fluid name [R14] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
-      </c>
-      <c r="E86" s="16" t="s">
+        <v>227.51</v>
+      </c>
+      <c r="F86" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="F86" s="16">
+      <c r="G86" s="16">
         <v>5210</v>
       </c>
-      <c r="G86" s="16">
+      <c r="H86" s="16">
         <v>7390</v>
       </c>
-      <c r="H86" s="16">
+      <c r="I86" s="16">
         <v>11200</v>
       </c>
-      <c r="I86" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="J86" s="10" t="s">
         <v>112</v>
       </c>
       <c r="K86" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L86" s="10">
+      <c r="L86" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M86" s="10">
         <v>697</v>
       </c>
-      <c r="M86" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="N86" s="10" t="s">
         <v>112</v>
       </c>
@@ -9311,10 +9650,13 @@
       <c r="Y86" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z86" s="7"/>
+      <c r="Z86" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA86" s="7"/>
-    </row>
-    <row r="87" spans="1:27">
+      <c r="AB86" s="7"/>
+    </row>
+    <row r="87" spans="1:28">
       <c r="A87" s="16" t="s">
         <v>83</v>
       </c>
@@ -9325,36 +9667,37 @@
         <v>83</v>
       </c>
       <c r="D87" s="16" t="str">
+        <f>[1]!CAS_code(C87)</f>
+        <v>Fluid name invalid</v>
+      </c>
+      <c r="E87" s="16" t="str">
         <f>[1]!Props1(C87,"Tcrit")</f>
-        <v>CoolProp error: Your fluid name [R141B] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
-      </c>
-      <c r="E87" s="16" t="s">
+        <v>CoolProp error: Fluid "R141B" is an invalid fluid</v>
+      </c>
+      <c r="F87" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="F87" s="16">
+      <c r="G87" s="16">
         <v>2250</v>
       </c>
-      <c r="G87" s="16">
+      <c r="H87" s="16">
         <v>725</v>
       </c>
-      <c r="H87" s="16">
+      <c r="I87" s="16">
         <v>220</v>
-      </c>
-      <c r="I87" s="16">
-        <v>0.11</v>
       </c>
       <c r="J87" s="16">
         <v>0.11</v>
       </c>
       <c r="K87" s="16">
+        <v>0.11</v>
+      </c>
+      <c r="L87" s="16">
         <v>0.12</v>
       </c>
-      <c r="L87" s="10">
+      <c r="M87" s="10">
         <v>80.599999999999994</v>
       </c>
-      <c r="M87" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="N87" s="10" t="s">
         <v>112</v>
       </c>
@@ -9391,10 +9734,13 @@
       <c r="Y87" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z87" s="7"/>
+      <c r="Z87" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA87" s="7"/>
-    </row>
-    <row r="88" spans="1:27">
+      <c r="AB87" s="7"/>
+    </row>
+    <row r="88" spans="1:28">
       <c r="A88" s="16" t="s">
         <v>84</v>
       </c>
@@ -9405,36 +9751,37 @@
         <v>84</v>
       </c>
       <c r="D88" s="16" t="str">
+        <f>[1]!CAS_code(C88)</f>
+        <v>Fluid name invalid</v>
+      </c>
+      <c r="E88" s="16" t="str">
         <f>[1]!Props1(C88,"Tcrit")</f>
-        <v>CoolProp error: Your fluid name [R142B] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
-      </c>
-      <c r="E88" s="16" t="s">
+        <v>CoolProp error: Fluid "R142B" is an invalid fluid</v>
+      </c>
+      <c r="F88" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="F88" s="16">
+      <c r="G88" s="16">
         <v>5490</v>
       </c>
-      <c r="G88" s="16">
+      <c r="H88" s="16">
         <v>2310</v>
       </c>
-      <c r="H88" s="16">
+      <c r="I88" s="16">
         <v>705</v>
-      </c>
-      <c r="I88" s="16">
-        <v>6.5000000000000002E-2</v>
       </c>
       <c r="J88" s="16">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="K88" s="16">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L88" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L88" s="10">
+      <c r="M88" s="10">
         <v>228</v>
       </c>
-      <c r="M88" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="N88" s="10" t="s">
         <v>112</v>
       </c>
@@ -9471,10 +9818,13 @@
       <c r="Y88" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z88" s="7"/>
+      <c r="Z88" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA88" s="7"/>
-    </row>
-    <row r="89" spans="1:27">
+      <c r="AB88" s="7"/>
+    </row>
+    <row r="89" spans="1:28">
       <c r="A89" s="16" t="s">
         <v>85</v>
       </c>
@@ -9484,37 +9834,38 @@
       <c r="C89" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D89" s="16">
+      <c r="D89" s="16" t="str">
+        <f>[1]!CAS_code(C89)</f>
+        <v>420-46-2</v>
+      </c>
+      <c r="E89" s="16">
         <f>[1]!Props1(C89,"Tcrit")</f>
         <v>345.85700000000003</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="F89" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="F89" s="16">
+      <c r="G89" s="16">
         <v>5890</v>
       </c>
-      <c r="G89" s="16">
+      <c r="H89" s="16">
         <v>4470</v>
       </c>
-      <c r="H89" s="16">
+      <c r="I89" s="16">
         <v>1590</v>
       </c>
-      <c r="I89" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="J89" s="10" t="s">
         <v>112</v>
       </c>
       <c r="K89" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L89" s="10">
+      <c r="L89" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M89" s="10">
         <v>487</v>
       </c>
-      <c r="M89" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="N89" s="10" t="s">
         <v>112</v>
       </c>
@@ -9551,10 +9902,13 @@
       <c r="Y89" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z89" s="7"/>
+      <c r="Z89" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA89" s="7"/>
-    </row>
-    <row r="90" spans="1:27">
+      <c r="AB89" s="7"/>
+    </row>
+    <row r="90" spans="1:28">
       <c r="A90" s="16" t="s">
         <v>86</v>
       </c>
@@ -9564,37 +9918,38 @@
       <c r="C90" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D90" s="16">
+      <c r="D90" s="16" t="str">
+        <f>[1]!CAS_code(C90)</f>
+        <v>75-37-6</v>
+      </c>
+      <c r="E90" s="16">
         <f>[1]!Props1(C90,"Tcrit")</f>
         <v>386.411</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="F90" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="F90" s="16">
+      <c r="G90" s="16">
         <v>437</v>
       </c>
-      <c r="G90" s="16">
+      <c r="H90" s="16">
         <v>124</v>
       </c>
-      <c r="H90" s="16">
+      <c r="I90" s="16">
         <v>38</v>
       </c>
-      <c r="I90" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="J90" s="10" t="s">
         <v>112</v>
       </c>
       <c r="K90" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L90" s="10">
+      <c r="L90" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M90" s="10">
         <v>15.5</v>
       </c>
-      <c r="M90" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="N90" s="10" t="s">
         <v>112</v>
       </c>
@@ -9631,10 +9986,13 @@
       <c r="Y90" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z90" s="7"/>
+      <c r="Z90" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA90" s="7"/>
-    </row>
-    <row r="91" spans="1:27">
+      <c r="AB90" s="7"/>
+    </row>
+    <row r="91" spans="1:28">
       <c r="A91" s="16" t="s">
         <v>87</v>
       </c>
@@ -9644,22 +10002,23 @@
       <c r="C91" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D91" s="16">
+      <c r="D91" s="16" t="str">
+        <f>[1]!CAS_code(C91)</f>
+        <v>353-36-6</v>
+      </c>
+      <c r="E91" s="16">
         <f>[1]!Props1(C91,"Tcrit")</f>
         <v>375.25</v>
       </c>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="G91" s="16">
+      <c r="F91" s="16"/>
+      <c r="G91" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H91" s="16">
         <v>10</v>
       </c>
-      <c r="H91" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="I91" s="10" t="s">
-        <v>112</v>
+      <c r="I91" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="J91" s="10" t="s">
         <v>112</v>
@@ -9667,11 +10026,11 @@
       <c r="K91" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L91" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="M91" s="10" t="s">
-        <v>112</v>
+      <c r="L91" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M91" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="N91" s="10" t="s">
         <v>112</v>
@@ -9709,10 +10068,13 @@
       <c r="Y91" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z91" s="7"/>
+      <c r="Z91" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA91" s="7"/>
-    </row>
-    <row r="92" spans="1:27">
+      <c r="AB91" s="7"/>
+    </row>
+    <row r="92" spans="1:28">
       <c r="A92" s="16" t="s">
         <v>88</v>
       </c>
@@ -9723,35 +10085,36 @@
         <v>88</v>
       </c>
       <c r="D92" s="16" t="str">
+        <f>[1]!CAS_code(C92)</f>
+        <v>75-43-4</v>
+      </c>
+      <c r="E92" s="16">
         <f>[1]!Props1(C92,"Tcrit")</f>
-        <v>CoolProp error: Your fluid name [R21] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
-      </c>
-      <c r="E92" s="16" t="s">
+        <v>451.48</v>
+      </c>
+      <c r="F92" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="F92" s="16">
+      <c r="G92" s="16">
         <v>530</v>
       </c>
-      <c r="G92" s="16">
+      <c r="H92" s="16">
         <v>151</v>
       </c>
-      <c r="H92" s="16">
+      <c r="I92" s="16">
         <v>46</v>
-      </c>
-      <c r="I92" s="16">
-        <v>0.04</v>
       </c>
       <c r="J92" s="16">
         <v>0.04</v>
       </c>
-      <c r="K92" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="L92" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="M92" s="10" t="s">
-        <v>112</v>
+      <c r="K92" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="L92" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="M92" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="N92" s="10" t="s">
         <v>112</v>
@@ -9789,10 +10152,13 @@
       <c r="Y92" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z92" s="7"/>
+      <c r="Z92" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA92" s="7"/>
-    </row>
-    <row r="93" spans="1:27">
+      <c r="AB92" s="7"/>
+    </row>
+    <row r="93" spans="1:28">
       <c r="A93" s="16" t="s">
         <v>89</v>
       </c>
@@ -9802,36 +10168,37 @@
       <c r="C93" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D93" s="16">
+      <c r="D93" s="16" t="str">
+        <f>[1]!CAS_code(C93)</f>
+        <v>76-19-7</v>
+      </c>
+      <c r="E93" s="16">
         <f>[1]!Props1(C93,"Tcrit")</f>
         <v>345.02</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="F93" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="F93" s="16">
+      <c r="G93" s="16">
         <v>6310</v>
       </c>
-      <c r="G93" s="16">
+      <c r="H93" s="16">
         <v>8830</v>
       </c>
-      <c r="H93" s="16">
+      <c r="I93" s="16">
         <v>12500</v>
       </c>
-      <c r="I93" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="J93" s="10" t="s">
         <v>112</v>
       </c>
       <c r="K93" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L93" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="M93" s="10" t="s">
-        <v>112</v>
+      <c r="L93" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M93" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="N93" s="10" t="s">
         <v>112</v>
@@ -9869,10 +10236,13 @@
       <c r="Y93" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z93" s="7"/>
+      <c r="Z93" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA93" s="7"/>
-    </row>
-    <row r="94" spans="1:27">
+      <c r="AB93" s="7"/>
+    </row>
+    <row r="94" spans="1:28">
       <c r="A94" s="16" t="s">
         <v>90</v>
       </c>
@@ -9882,37 +10252,38 @@
       <c r="C94" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D94" s="16">
+      <c r="D94" s="16" t="str">
+        <f>[1]!CAS_code(C94)</f>
+        <v>75-45-6</v>
+      </c>
+      <c r="E94" s="16">
         <f>[1]!Props1(C94,"Tcrit")</f>
         <v>369.29500000000002</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="F94" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="F94" s="16">
+      <c r="G94" s="16">
         <v>5160</v>
       </c>
-      <c r="G94" s="16">
+      <c r="H94" s="16">
         <v>1810</v>
       </c>
-      <c r="H94" s="16">
+      <c r="I94" s="16">
         <v>549</v>
-      </c>
-      <c r="I94" s="16">
-        <v>5.5E-2</v>
       </c>
       <c r="J94" s="16">
         <v>5.5E-2</v>
       </c>
       <c r="K94" s="16">
+        <v>5.5E-2</v>
+      </c>
+      <c r="L94" s="16">
         <v>0.05</v>
       </c>
-      <c r="L94" s="10">
+      <c r="M94" s="10">
         <v>194</v>
       </c>
-      <c r="M94" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="N94" s="10" t="s">
         <v>112</v>
       </c>
@@ -9949,10 +10320,13 @@
       <c r="Y94" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z94" s="7"/>
+      <c r="Z94" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA94" s="7"/>
-    </row>
-    <row r="95" spans="1:27">
+      <c r="AB94" s="7"/>
+    </row>
+    <row r="95" spans="1:28">
       <c r="A95" s="16" t="s">
         <v>91</v>
       </c>
@@ -9962,37 +10336,38 @@
       <c r="C95" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D95" s="16">
+      <c r="D95" s="16" t="str">
+        <f>[1]!CAS_code(C95)</f>
+        <v>431-89-0</v>
+      </c>
+      <c r="E95" s="16">
         <f>[1]!Props1(C95,"Tcrit")</f>
         <v>374.9</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="F95" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="F95" s="16">
+      <c r="G95" s="16">
         <v>5310</v>
       </c>
-      <c r="G95" s="16">
+      <c r="H95" s="16">
         <v>3220</v>
       </c>
-      <c r="H95" s="16">
+      <c r="I95" s="16">
         <v>1040</v>
       </c>
-      <c r="I95" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="J95" s="10" t="s">
         <v>112</v>
       </c>
       <c r="K95" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L95" s="10">
+      <c r="L95" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M95" s="10">
         <v>365</v>
       </c>
-      <c r="M95" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="N95" s="10" t="s">
         <v>112</v>
       </c>
@@ -10029,10 +10404,13 @@
       <c r="Y95" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z95" s="7"/>
+      <c r="Z95" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA95" s="7"/>
-    </row>
-    <row r="96" spans="1:27">
+      <c r="AB95" s="7"/>
+    </row>
+    <row r="96" spans="1:28">
       <c r="A96" s="16" t="s">
         <v>92</v>
       </c>
@@ -10042,37 +10420,38 @@
       <c r="C96" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D96" s="16">
+      <c r="D96" s="16" t="str">
+        <f>[1]!CAS_code(C96)</f>
+        <v>75-46-7</v>
+      </c>
+      <c r="E96" s="16">
         <f>[1]!Props1(C96,"Tcrit")</f>
         <v>299.29300000000001</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="F96" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="F96" s="16">
+      <c r="G96" s="16">
         <v>12000</v>
       </c>
-      <c r="G96" s="16">
+      <c r="H96" s="16">
         <v>14800</v>
       </c>
-      <c r="H96" s="16">
+      <c r="I96" s="16">
         <v>12200</v>
       </c>
-      <c r="I96" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="J96" s="10" t="s">
         <v>112</v>
       </c>
       <c r="K96" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L96" s="10">
+      <c r="L96" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M96" s="10">
         <v>1340</v>
       </c>
-      <c r="M96" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="N96" s="10" t="s">
         <v>112</v>
       </c>
@@ -10109,10 +10488,13 @@
       <c r="Y96" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z96" s="7"/>
+      <c r="Z96" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA96" s="7"/>
-    </row>
-    <row r="97" spans="1:27">
+      <c r="AB96" s="7"/>
+    </row>
+    <row r="97" spans="1:28">
       <c r="A97" s="16" t="s">
         <v>93</v>
       </c>
@@ -10122,24 +10504,25 @@
       <c r="C97" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D97" s="16">
+      <c r="D97" s="16" t="str">
+        <f>[1]!CAS_code(C97)</f>
+        <v>431-63-0</v>
+      </c>
+      <c r="E97" s="16">
         <f>[1]!Props1(C97,"Tcrit")</f>
         <v>412.44</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="F97" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="F97" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="G97" s="16">
+      <c r="G97" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H97" s="16">
         <v>1200</v>
       </c>
-      <c r="H97" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="I97" s="10" t="s">
-        <v>112</v>
+      <c r="I97" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="J97" s="10" t="s">
         <v>112</v>
@@ -10147,11 +10530,11 @@
       <c r="K97" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L97" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="M97" s="10" t="s">
-        <v>112</v>
+      <c r="L97" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M97" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="N97" s="10" t="s">
         <v>112</v>
@@ -10189,10 +10572,13 @@
       <c r="Y97" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z97" s="7"/>
+      <c r="Z97" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA97" s="7"/>
-    </row>
-    <row r="98" spans="1:27">
+      <c r="AB97" s="7"/>
+    </row>
+    <row r="98" spans="1:28">
       <c r="A98" s="16" t="s">
         <v>94</v>
       </c>
@@ -10202,36 +10588,37 @@
       <c r="C98" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D98" s="16">
+      <c r="D98" s="16" t="str">
+        <f>[1]!CAS_code(C98)</f>
+        <v>690-39-1</v>
+      </c>
+      <c r="E98" s="16">
         <f>[1]!Props1(C98,"Tcrit")</f>
         <v>398.07</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="F98" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="F98" s="16">
+      <c r="G98" s="16">
         <v>8100</v>
       </c>
-      <c r="G98" s="16">
+      <c r="H98" s="16">
         <v>9810</v>
       </c>
-      <c r="H98" s="16">
+      <c r="I98" s="16">
         <v>7660</v>
       </c>
-      <c r="I98" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="J98" s="10" t="s">
         <v>112</v>
       </c>
       <c r="K98" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L98" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="M98" s="10" t="s">
-        <v>112</v>
+      <c r="L98" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M98" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="N98" s="10" t="s">
         <v>112</v>
@@ -10269,10 +10656,13 @@
       <c r="Y98" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z98" s="7"/>
+      <c r="Z98" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA98" s="7"/>
-    </row>
-    <row r="99" spans="1:27">
+      <c r="AB98" s="7"/>
+    </row>
+    <row r="99" spans="1:28">
       <c r="A99" s="16" t="s">
         <v>95</v>
       </c>
@@ -10283,23 +10673,24 @@
         <v>95</v>
       </c>
       <c r="D99" s="16" t="str">
+        <f>[1]!CAS_code(C99)</f>
+        <v>Fluid name invalid</v>
+      </c>
+      <c r="E99" s="16" t="str">
         <f>[1]!Props1(C99,"Tcrit")</f>
-        <v>CoolProp error: Your fluid name [R245CA] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
-      </c>
-      <c r="E99" s="16" t="s">
+        <v>CoolProp error: Fluid "R245CA" is an invalid fluid</v>
+      </c>
+      <c r="F99" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="F99" s="16" t="s">
-        <v>266</v>
-      </c>
       <c r="G99" s="16" t="s">
         <v>266</v>
       </c>
       <c r="H99" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="I99" s="10" t="s">
-        <v>112</v>
+      <c r="I99" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="J99" s="10" t="s">
         <v>112</v>
@@ -10307,12 +10698,12 @@
       <c r="K99" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L99" s="10">
+      <c r="L99" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M99" s="10">
         <v>67.5</v>
       </c>
-      <c r="M99" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="N99" s="10" t="s">
         <v>112</v>
       </c>
@@ -10349,10 +10740,13 @@
       <c r="Y99" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z99" s="7"/>
+      <c r="Z99" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA99" s="7"/>
-    </row>
-    <row r="100" spans="1:27">
+      <c r="AB99" s="7"/>
+    </row>
+    <row r="100" spans="1:28">
       <c r="A100" s="16" t="s">
         <v>96</v>
       </c>
@@ -10360,27 +10754,28 @@
         <v>153</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="D100" s="16">
+        <v>416</v>
+      </c>
+      <c r="D100" s="16" t="str">
+        <f>[1]!CAS_code(C100)</f>
+        <v>460-73-1</v>
+      </c>
+      <c r="E100" s="16">
         <f>[1]!Props1(C100,"Tcrit")</f>
         <v>427.16</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="F100" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="F100" s="16">
+      <c r="G100" s="16">
         <v>3380</v>
       </c>
-      <c r="G100" s="16">
+      <c r="H100" s="16">
         <v>1030</v>
       </c>
-      <c r="H100" s="16">
+      <c r="I100" s="16">
         <v>314</v>
       </c>
-      <c r="I100" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="J100" s="10" t="s">
         <v>112</v>
       </c>
@@ -10388,10 +10783,10 @@
         <v>112</v>
       </c>
       <c r="L100" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M100" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N100" s="10" t="s">
         <v>112</v>
@@ -10429,10 +10824,13 @@
       <c r="Y100" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z100" s="7"/>
+      <c r="Z100" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA100" s="7"/>
-    </row>
-    <row r="101" spans="1:27">
+      <c r="AB100" s="7"/>
+    </row>
+    <row r="101" spans="1:28">
       <c r="A101" s="16" t="s">
         <v>97</v>
       </c>
@@ -10442,37 +10840,38 @@
       <c r="C101" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D101" s="16">
+      <c r="D101" s="16" t="str">
+        <f>[1]!CAS_code(C101)</f>
+        <v>75-10-5</v>
+      </c>
+      <c r="E101" s="16">
         <f>[1]!Props1(C101,"Tcrit")</f>
         <v>351.255</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="F101" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="F101" s="16">
+      <c r="G101" s="16">
         <v>2330</v>
       </c>
-      <c r="G101" s="16">
+      <c r="H101" s="16">
         <v>675</v>
       </c>
-      <c r="H101" s="16">
+      <c r="I101" s="16">
         <v>205</v>
       </c>
-      <c r="I101" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="J101" s="10" t="s">
         <v>112</v>
       </c>
       <c r="K101" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L101" s="10">
+      <c r="L101" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M101" s="10">
         <v>64.2</v>
       </c>
-      <c r="M101" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="N101" s="10" t="s">
         <v>112</v>
       </c>
@@ -10509,10 +10908,13 @@
       <c r="Y101" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z101" s="7"/>
+      <c r="Z101" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA101" s="7"/>
-    </row>
-    <row r="102" spans="1:27">
+      <c r="AB101" s="7"/>
+    </row>
+    <row r="102" spans="1:28">
       <c r="A102" s="16" t="s">
         <v>98</v>
       </c>
@@ -10522,25 +10924,26 @@
       <c r="C102" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D102" s="16">
+      <c r="D102" s="16" t="str">
+        <f>[1]!CAS_code(C102)</f>
+        <v>406-58-6</v>
+      </c>
+      <c r="E102" s="16">
         <f>[1]!Props1(C102,"Tcrit")</f>
         <v>460</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="F102" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="F102" s="22">
+      <c r="G102" s="22">
         <v>2520</v>
       </c>
-      <c r="G102" s="22">
+      <c r="H102" s="22">
         <v>794</v>
       </c>
-      <c r="H102" s="22">
+      <c r="I102" s="22">
         <v>241</v>
       </c>
-      <c r="I102" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="J102" s="10" t="s">
         <v>112</v>
       </c>
@@ -10548,10 +10951,10 @@
         <v>112</v>
       </c>
       <c r="L102" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M102" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N102" s="10" t="s">
         <v>112</v>
@@ -10589,10 +10992,13 @@
       <c r="Y102" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z102" s="7"/>
+      <c r="Z102" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA102" s="7"/>
-    </row>
-    <row r="103" spans="1:27">
+      <c r="AB102" s="7"/>
+    </row>
+    <row r="103" spans="1:28">
       <c r="A103" s="16" t="s">
         <v>99</v>
       </c>
@@ -10602,28 +11008,29 @@
       <c r="C103" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D103" s="16">
+      <c r="D103" s="16" t="str">
+        <f>[1]!CAS_code(C103)</f>
+        <v>N/A</v>
+      </c>
+      <c r="E103" s="16">
         <f>[1]!Props1(C103,"Tcrit")</f>
         <v>345.27</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="F103" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="F103" s="16" t="s">
-        <v>266</v>
-      </c>
       <c r="G103" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H103" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="H103" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="I103" s="16">
+      <c r="I103" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="J103" s="16">
         <v>0.04</v>
       </c>
-      <c r="J103" s="10" t="s">
-        <v>266</v>
-      </c>
       <c r="K103" s="10" t="s">
         <v>266</v>
       </c>
@@ -10631,7 +11038,7 @@
         <v>266</v>
       </c>
       <c r="M103" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N103" s="10" t="s">
         <v>112</v>
@@ -10669,10 +11076,13 @@
       <c r="Y103" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z103" s="7"/>
+      <c r="Z103" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA103" s="7"/>
-    </row>
-    <row r="104" spans="1:27">
+      <c r="AB103" s="7"/>
+    </row>
+    <row r="104" spans="1:28">
       <c r="A104" s="16" t="s">
         <v>100</v>
       </c>
@@ -10682,28 +11092,29 @@
       <c r="C104" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D104" s="16">
+      <c r="D104" s="16" t="str">
+        <f>[1]!CAS_code(C104)</f>
+        <v>N/A</v>
+      </c>
+      <c r="E104" s="16">
         <f>[1]!Props1(C104,"Tcrit")</f>
         <v>359.34500000000003</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="F104" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="F104" s="16" t="s">
-        <v>266</v>
-      </c>
       <c r="G104" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H104" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="H104" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="I104" s="16">
+      <c r="I104" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="J104" s="16">
         <v>0</v>
       </c>
-      <c r="J104" s="10" t="s">
-        <v>266</v>
-      </c>
       <c r="K104" s="10" t="s">
         <v>266</v>
       </c>
@@ -10711,7 +11122,7 @@
         <v>266</v>
       </c>
       <c r="M104" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N104" s="10" t="s">
         <v>112</v>
@@ -10749,10 +11160,13 @@
       <c r="Y104" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z104" s="7"/>
+      <c r="Z104" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA104" s="7"/>
-    </row>
-    <row r="105" spans="1:27">
+      <c r="AB104" s="7"/>
+    </row>
+    <row r="105" spans="1:28">
       <c r="A105" s="16" t="s">
         <v>101</v>
       </c>
@@ -10762,25 +11176,26 @@
       <c r="C105" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="16">
+      <c r="D105" s="16" t="str">
+        <f>[1]!CAS_code(C105)</f>
+        <v>593-53-3</v>
+      </c>
+      <c r="E105" s="16">
         <f>[1]!Props1(C105,"Tcrit")</f>
         <v>317.27999999999997</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="F105" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="F105" s="16">
+      <c r="G105" s="16">
         <v>323</v>
       </c>
-      <c r="G105" s="16">
+      <c r="H105" s="16">
         <v>92</v>
       </c>
-      <c r="H105" s="16">
+      <c r="I105" s="16">
         <v>28</v>
       </c>
-      <c r="I105" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="J105" s="10" t="s">
         <v>112</v>
       </c>
@@ -10788,10 +11203,10 @@
         <v>112</v>
       </c>
       <c r="L105" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M105" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N105" s="10" t="s">
         <v>112</v>
@@ -10829,10 +11244,13 @@
       <c r="Y105" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z105" s="7"/>
+      <c r="Z105" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA105" s="7"/>
-    </row>
-    <row r="106" spans="1:27">
+      <c r="AB105" s="7"/>
+    </row>
+    <row r="106" spans="1:28">
       <c r="A106" s="16" t="s">
         <v>102</v>
       </c>
@@ -10842,24 +11260,25 @@
       <c r="C106" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="16">
+      <c r="D106" s="16" t="str">
+        <f>[1]!CAS_code(C106)</f>
+        <v>N/A</v>
+      </c>
+      <c r="E106" s="16">
         <f>[1]!Props1(C106,"Tcrit")</f>
         <v>344.49400000000003</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="F106" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="F106" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="G106" s="16">
+      <c r="G106" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H106" s="16">
         <v>2088</v>
       </c>
-      <c r="H106" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="I106" s="10" t="s">
-        <v>112</v>
+      <c r="I106" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="J106" s="10" t="s">
         <v>112</v>
@@ -10868,10 +11287,10 @@
         <v>112</v>
       </c>
       <c r="L106" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M106" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N106" s="10" t="s">
         <v>112</v>
@@ -10909,10 +11328,13 @@
       <c r="Y106" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z106" s="7"/>
+      <c r="Z106" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA106" s="7"/>
-    </row>
-    <row r="107" spans="1:27">
+      <c r="AB106" s="7"/>
+    </row>
+    <row r="107" spans="1:28">
       <c r="A107" s="16" t="s">
         <v>103</v>
       </c>
@@ -10922,24 +11344,25 @@
       <c r="C107" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="16">
+      <c r="D107" s="16" t="str">
+        <f>[1]!CAS_code(C107)</f>
+        <v>N/A</v>
+      </c>
+      <c r="E107" s="16">
         <f>[1]!Props1(C107,"Tcrit")</f>
         <v>343.76499999999999</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="F107" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="F107" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="G107" s="16">
+      <c r="G107" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H107" s="16">
         <v>3985</v>
       </c>
-      <c r="H107" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="I107" s="10" t="s">
-        <v>112</v>
+      <c r="I107" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="J107" s="10" t="s">
         <v>112</v>
@@ -10948,10 +11371,10 @@
         <v>112</v>
       </c>
       <c r="L107" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M107" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N107" s="10" t="s">
         <v>112</v>
@@ -10989,10 +11412,13 @@
       <c r="Y107" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z107" s="7"/>
+      <c r="Z107" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA107" s="7"/>
-    </row>
-    <row r="108" spans="1:27">
+      <c r="AB107" s="7"/>
+    </row>
+    <row r="108" spans="1:28">
       <c r="A108" s="16" t="s">
         <v>104</v>
       </c>
@@ -11003,36 +11429,37 @@
         <v>104</v>
       </c>
       <c r="D108" s="16" t="str">
+        <f>[1]!CAS_code(C108)</f>
+        <v>115-25-3</v>
+      </c>
+      <c r="E108" s="16">
         <f>[1]!Props1(C108,"Tcrit")</f>
-        <v>CoolProp error: Your fluid name [RC318] is not a CoolProp fluid, a REFPROP fluid, a brine or a liquid</v>
-      </c>
-      <c r="E108" s="16" t="s">
+        <v>388.38</v>
+      </c>
+      <c r="F108" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="F108" s="16">
+      <c r="G108" s="16">
         <v>7310</v>
       </c>
-      <c r="G108" s="16">
+      <c r="H108" s="16">
         <v>10300</v>
       </c>
-      <c r="H108" s="16">
+      <c r="I108" s="16">
         <v>14700</v>
       </c>
-      <c r="I108" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="J108" s="10" t="s">
         <v>112</v>
       </c>
       <c r="K108" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L108" s="10">
+      <c r="L108" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M108" s="10">
         <v>1010</v>
       </c>
-      <c r="M108" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="N108" s="10" t="s">
         <v>112</v>
       </c>
@@ -11069,10 +11496,13 @@
       <c r="Y108" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z108" s="7"/>
+      <c r="Z108" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA108" s="7"/>
-    </row>
-    <row r="109" spans="1:27">
+      <c r="AB108" s="7"/>
+    </row>
+    <row r="109" spans="1:28">
       <c r="A109" s="16" t="s">
         <v>105</v>
       </c>
@@ -11082,35 +11512,36 @@
       <c r="C109" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D109" s="16">
+      <c r="D109" s="16" t="str">
+        <f>[1]!CAS_code(C109)</f>
+        <v>2551-62-4</v>
+      </c>
+      <c r="E109" s="16">
         <f>[1]!Props1(C109,"Tcrit")</f>
         <v>318.72320000000002</v>
       </c>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16">
+      <c r="F109" s="16"/>
+      <c r="G109" s="16">
         <v>16300</v>
       </c>
-      <c r="G109" s="16">
+      <c r="H109" s="16">
         <v>22800</v>
       </c>
-      <c r="H109" s="16">
+      <c r="I109" s="16">
         <v>32600</v>
       </c>
-      <c r="I109" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="J109" s="10" t="s">
         <v>112</v>
       </c>
       <c r="K109" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L109" s="10">
+      <c r="L109" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M109" s="10">
         <v>2760</v>
       </c>
-      <c r="M109" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="N109" s="10" t="s">
         <v>112</v>
       </c>
@@ -11147,10 +11578,13 @@
       <c r="Y109" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z109" s="7"/>
+      <c r="Z109" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA109" s="7"/>
-    </row>
-    <row r="110" spans="1:27">
+      <c r="AB109" s="7"/>
+    </row>
+    <row r="110" spans="1:28">
       <c r="A110" s="16" t="s">
         <v>106</v>
       </c>
@@ -11158,27 +11592,28 @@
         <v>295</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="D110" s="16">
+        <v>409</v>
+      </c>
+      <c r="D110" s="16" t="str">
+        <f>[1]!CAS_code(C110)</f>
+        <v>7446-09-5</v>
+      </c>
+      <c r="E110" s="16">
         <f>[1]!Props1(C110,"Tcrit")</f>
         <v>430.64</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="F110" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="F110" s="33" t="s">
+      <c r="G110" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="G110" s="34" t="s">
+      <c r="H110" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="H110" s="33" t="s">
+      <c r="I110" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="I110" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="J110" s="10" t="s">
         <v>112</v>
       </c>
@@ -11186,10 +11621,10 @@
         <v>112</v>
       </c>
       <c r="L110" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M110" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N110" s="10" t="s">
         <v>112</v>
@@ -11227,10 +11662,13 @@
       <c r="Y110" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z110" s="7"/>
+      <c r="Z110" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA110" s="7"/>
-    </row>
-    <row r="111" spans="1:27">
+      <c r="AB110" s="7"/>
+    </row>
+    <row r="111" spans="1:28">
       <c r="A111" s="16" t="s">
         <v>107</v>
       </c>
@@ -11238,17 +11676,18 @@
         <v>157</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="D111" s="16">
+        <v>410</v>
+      </c>
+      <c r="D111" s="16" t="str">
+        <f>[1]!CAS_code(C111)</f>
+        <v>624-64-6</v>
+      </c>
+      <c r="E111" s="16">
         <f>[1]!Props1(C111,"Tcrit")</f>
         <v>428.61</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="F111" s="16" t="s">
         <v>265</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>113</v>
@@ -11256,8 +11695,8 @@
       <c r="H111" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I111" s="10" t="s">
-        <v>112</v>
+      <c r="I111" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="J111" s="10" t="s">
         <v>112</v>
@@ -11265,24 +11704,24 @@
       <c r="K111" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L111" s="10">
+      <c r="L111" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M111" s="10">
         <v>2.57</v>
       </c>
-      <c r="M111" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="N111" s="10" t="s">
         <v>112</v>
       </c>
       <c r="O111" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P111" s="15">
+      <c r="P111" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q111" s="15">
         <v>1.1319999999999999</v>
       </c>
-      <c r="Q111" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="R111" s="10" t="s">
         <v>112</v>
       </c>
@@ -11307,10 +11746,13 @@
       <c r="Y111" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z111" s="7"/>
+      <c r="Z111" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA111" s="7"/>
-    </row>
-    <row r="112" spans="1:27">
+      <c r="AB111" s="7"/>
+    </row>
+    <row r="112" spans="1:28">
       <c r="A112" s="16" t="s">
         <v>108</v>
       </c>
@@ -11318,24 +11760,25 @@
         <v>201</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="D112" s="16">
+        <v>411</v>
+      </c>
+      <c r="D112" s="16" t="str">
+        <f>[1]!CAS_code(C112)</f>
+        <v>108-88-3</v>
+      </c>
+      <c r="E112" s="16">
         <f>[1]!Props1(C112,"Tcrit")</f>
         <v>591.75</v>
       </c>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="G112" s="23">
+      <c r="F112" s="16"/>
+      <c r="G112" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H112" s="23">
         <v>3.3</v>
       </c>
-      <c r="H112" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="I112" s="10" t="s">
-        <v>112</v>
+      <c r="I112" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="J112" s="10" t="s">
         <v>112</v>
@@ -11343,75 +11786,79 @@
       <c r="K112" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L112" s="10">
+      <c r="L112" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M112" s="10">
         <v>1.95</v>
       </c>
-      <c r="M112" s="10">
+      <c r="N112" s="10">
         <v>0.5</v>
       </c>
-      <c r="N112" s="10">
+      <c r="O112" s="10">
         <v>0.6</v>
       </c>
-      <c r="O112" s="10">
+      <c r="P112" s="10">
         <v>0.56499999999999995</v>
       </c>
-      <c r="P112" s="19">
+      <c r="Q112" s="19">
         <v>0.63700000000000001</v>
       </c>
-      <c r="Q112" s="19">
+      <c r="R112" s="19">
         <v>0.32691844018673533</v>
       </c>
-      <c r="R112" s="19">
+      <c r="S112" s="19">
         <v>7.0433827049018688E-5</v>
       </c>
-      <c r="S112" s="19">
+      <c r="T112" s="19">
         <v>6.994259786711188E-4</v>
       </c>
-      <c r="T112" s="19">
+      <c r="U112" s="19">
         <v>5.0362982770910133E-5</v>
       </c>
-      <c r="U112" s="19">
+      <c r="V112" s="19">
         <v>5.7943175621215392E-4</v>
       </c>
-      <c r="V112" s="19">
+      <c r="W112" s="19">
         <v>1.591775180548668E-5</v>
       </c>
-      <c r="W112" s="19">
+      <c r="X112" s="19">
         <v>263157.89473684214</v>
       </c>
-      <c r="X112" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="Y112" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z112" s="7"/>
+      <c r="Z112" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA112" s="7"/>
-    </row>
-    <row r="113" spans="1:27">
+      <c r="AB112" s="7"/>
+    </row>
+    <row r="113" spans="1:28">
       <c r="A113" s="16" t="s">
         <v>109</v>
       </c>
       <c r="B113" s="16"/>
       <c r="C113" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="D113" s="16">
+        <v>412</v>
+      </c>
+      <c r="D113" s="16" t="str">
+        <f>[1]!CAS_code(C113)</f>
+        <v>7732-18-5</v>
+      </c>
+      <c r="E113" s="16">
         <f>[1]!Props1(C113,"Tcrit")</f>
         <v>647.096</v>
       </c>
-      <c r="E113" s="16"/>
-      <c r="F113" s="35" t="s">
-        <v>118</v>
-      </c>
+      <c r="F113" s="16"/>
       <c r="G113" s="35" t="s">
         <v>118</v>
       </c>
       <c r="H113" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="I113" s="10" t="s">
-        <v>112</v>
+      <c r="I113" s="35" t="s">
+        <v>118</v>
       </c>
       <c r="J113" s="10" t="s">
         <v>112</v>
@@ -11420,10 +11867,10 @@
         <v>112</v>
       </c>
       <c r="L113" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M113" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N113" s="10" t="s">
         <v>112</v>
@@ -11461,32 +11908,36 @@
       <c r="Y113" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z113" s="7"/>
+      <c r="Z113" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA113" s="7"/>
-    </row>
-    <row r="114" spans="1:27">
+      <c r="AB113" s="7"/>
+    </row>
+    <row r="114" spans="1:28">
       <c r="A114" s="16" t="s">
         <v>110</v>
       </c>
       <c r="B114" s="16"/>
       <c r="C114" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="D114" s="16">
+        <v>413</v>
+      </c>
+      <c r="D114" s="16" t="str">
+        <f>[1]!CAS_code(C114)</f>
+        <v>7440-63-3</v>
+      </c>
+      <c r="E114" s="16">
         <f>[1]!Props1(C114,"Tcrit")</f>
         <v>289.733</v>
       </c>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16" t="s">
-        <v>112</v>
-      </c>
+      <c r="F114" s="16"/>
       <c r="G114" s="16" t="s">
         <v>112</v>
       </c>
       <c r="H114" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I114" s="10" t="s">
+      <c r="I114" s="16" t="s">
         <v>112</v>
       </c>
       <c r="J114" s="10" t="s">
@@ -11496,10 +11947,10 @@
         <v>112</v>
       </c>
       <c r="L114" s="10" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="M114" s="10" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N114" s="10" t="s">
         <v>112</v>
@@ -11537,13 +11988,15 @@
       <c r="Y114" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z114" s="7"/>
+      <c r="Z114" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="AA114" s="7"/>
-    </row>
-    <row r="115" spans="1:27">
-      <c r="F115" s="7"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="7"/>
+      <c r="AB114" s="7"/>
+    </row>
+    <row r="115" spans="1:28">
+      <c r="G115" s="7"/>
+      <c r="H115" s="9"/>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
@@ -11563,8 +12016,9 @@
       <c r="Y115" s="7"/>
       <c r="Z115" s="7"/>
       <c r="AA115" s="7"/>
-    </row>
-    <row r="116" spans="1:27">
+      <c r="AB115" s="7"/>
+    </row>
+    <row r="116" spans="1:28">
       <c r="A116" s="36" t="s">
         <v>310</v>
       </c>
@@ -11573,9 +12027,9 @@
       </c>
       <c r="C116" s="51"/>
       <c r="D116" s="51"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="7"/>
+      <c r="E116" s="51"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="9"/>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
@@ -11595,16 +12049,17 @@
       <c r="Y116" s="7"/>
       <c r="Z116" s="7"/>
       <c r="AA116" s="7"/>
-    </row>
-    <row r="117" spans="1:27">
+      <c r="AB116" s="7"/>
+    </row>
+    <row r="117" spans="1:28">
       <c r="B117" s="42" t="s">
         <v>308</v>
       </c>
       <c r="C117" s="40"/>
       <c r="D117" s="40"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="7"/>
+      <c r="E117" s="40"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="9"/>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
@@ -11624,11 +12079,11 @@
       <c r="Y117" s="7"/>
       <c r="Z117" s="7"/>
       <c r="AA117" s="7"/>
-    </row>
-    <row r="118" spans="1:27">
-      <c r="F118" s="7"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="7"/>
+      <c r="AB117" s="7"/>
+    </row>
+    <row r="118" spans="1:28">
+      <c r="G118" s="7"/>
+      <c r="H118" s="9"/>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
@@ -11648,8 +12103,9 @@
       <c r="Y118" s="7"/>
       <c r="Z118" s="7"/>
       <c r="AA118" s="7"/>
-    </row>
-    <row r="119" spans="1:27">
+      <c r="AB118" s="7"/>
+    </row>
+    <row r="119" spans="1:28">
       <c r="A119" s="36" t="s">
         <v>307</v>
       </c>
@@ -11658,8 +12114,8 @@
       </c>
       <c r="C119" s="46"/>
       <c r="D119" s="46"/>
-      <c r="E119" s="50"/>
-      <c r="F119" s="7"/>
+      <c r="E119" s="46"/>
+      <c r="F119" s="50"/>
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
@@ -11681,14 +12137,15 @@
       <c r="Y119" s="7"/>
       <c r="Z119" s="7"/>
       <c r="AA119" s="7"/>
-    </row>
-    <row r="120" spans="1:27">
+      <c r="AB119" s="7"/>
+    </row>
+    <row r="120" spans="1:28">
       <c r="B120" s="37" t="s">
         <v>317</v>
       </c>
       <c r="C120" s="37"/>
       <c r="D120" s="37"/>
-      <c r="F120" s="7"/>
+      <c r="E120" s="37"/>
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
@@ -11710,17 +12167,18 @@
       <c r="Y120" s="7"/>
       <c r="Z120" s="7"/>
       <c r="AA120" s="7"/>
-    </row>
-    <row r="121" spans="1:27">
+      <c r="AB120" s="7"/>
+    </row>
+    <row r="121" spans="1:28">
       <c r="B121" s="38" t="s">
         <v>311</v>
       </c>
       <c r="C121" s="38"/>
       <c r="D121" s="38"/>
-      <c r="E121" s="4" t="s">
+      <c r="E121" s="38"/>
+      <c r="F121" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
@@ -11742,17 +12200,18 @@
       <c r="Y121" s="7"/>
       <c r="Z121" s="7"/>
       <c r="AA121" s="7"/>
-    </row>
-    <row r="122" spans="1:27">
+      <c r="AB121" s="7"/>
+    </row>
+    <row r="122" spans="1:28">
       <c r="B122" s="38" t="s">
         <v>312</v>
       </c>
       <c r="C122" s="38"/>
       <c r="D122" s="38"/>
-      <c r="E122" s="4" t="s">
+      <c r="E122" s="38"/>
+      <c r="F122" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
@@ -11774,17 +12233,18 @@
       <c r="Y122" s="7"/>
       <c r="Z122" s="7"/>
       <c r="AA122" s="7"/>
-    </row>
-    <row r="123" spans="1:27">
+      <c r="AB122" s="7"/>
+    </row>
+    <row r="123" spans="1:28">
       <c r="B123" s="38" t="s">
         <v>319</v>
       </c>
       <c r="C123" s="38"/>
       <c r="D123" s="38"/>
-      <c r="E123" s="4" t="s">
+      <c r="E123" s="38"/>
+      <c r="F123" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
@@ -11806,17 +12266,18 @@
       <c r="Y123" s="7"/>
       <c r="Z123" s="7"/>
       <c r="AA123" s="7"/>
-    </row>
-    <row r="124" spans="1:27">
+      <c r="AB123" s="7"/>
+    </row>
+    <row r="124" spans="1:28">
       <c r="B124" s="38" t="s">
         <v>313</v>
       </c>
       <c r="C124" s="38"/>
       <c r="D124" s="38"/>
-      <c r="E124" s="4" t="s">
+      <c r="E124" s="38"/>
+      <c r="F124" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
@@ -11838,86 +12299,98 @@
       <c r="Y124" s="7"/>
       <c r="Z124" s="7"/>
       <c r="AA124" s="7"/>
-    </row>
-    <row r="125" spans="1:27">
+      <c r="AB124" s="7"/>
+    </row>
+    <row r="125" spans="1:28">
       <c r="B125" s="38" t="s">
         <v>314</v>
       </c>
       <c r="C125" s="38"/>
       <c r="D125" s="38"/>
-    </row>
-    <row r="126" spans="1:27">
+      <c r="E125" s="38"/>
+    </row>
+    <row r="126" spans="1:28">
       <c r="B126" s="38" t="s">
         <v>318</v>
       </c>
       <c r="C126" s="38"/>
       <c r="D126" s="38"/>
-    </row>
-    <row r="127" spans="1:27">
+      <c r="E126" s="38"/>
+    </row>
+    <row r="127" spans="1:28">
       <c r="B127" s="39" t="s">
         <v>321</v>
       </c>
       <c r="C127" s="39"/>
       <c r="D127" s="39"/>
-      <c r="E127" s="42"/>
-    </row>
-    <row r="129" spans="1:21">
+      <c r="E127" s="39"/>
+      <c r="F127" s="42"/>
+    </row>
+    <row r="129" spans="1:22">
       <c r="B129" s="45" t="s">
         <v>117</v>
       </c>
       <c r="C129" s="52"/>
       <c r="D129" s="52"/>
-    </row>
-    <row r="130" spans="1:21">
+      <c r="E129" s="52"/>
+    </row>
+    <row r="130" spans="1:22">
       <c r="B130" s="40" t="s">
         <v>320</v>
       </c>
       <c r="C130" s="40"/>
       <c r="D130" s="40"/>
-    </row>
-    <row r="131" spans="1:21">
+      <c r="E130" s="40"/>
+    </row>
+    <row r="131" spans="1:22">
       <c r="B131" s="38" t="s">
         <v>315</v>
       </c>
       <c r="C131" s="38"/>
       <c r="D131" s="38"/>
-    </row>
-    <row r="132" spans="1:21">
+      <c r="E131" s="38"/>
+    </row>
+    <row r="132" spans="1:22">
       <c r="B132" s="41" t="s">
         <v>316</v>
       </c>
       <c r="C132" s="38"/>
       <c r="D132" s="38"/>
-    </row>
-    <row r="134" spans="1:21">
+      <c r="E132" s="38"/>
+    </row>
+    <row r="134" spans="1:22">
       <c r="B134" s="44" t="s">
         <v>112</v>
       </c>
       <c r="C134" s="51"/>
       <c r="D134" s="51"/>
-    </row>
-    <row r="135" spans="1:21">
+      <c r="E134" s="51"/>
+    </row>
+    <row r="135" spans="1:22">
       <c r="B135" s="42" t="s">
         <v>323</v>
       </c>
       <c r="C135" s="40"/>
       <c r="D135" s="40"/>
-    </row>
-    <row r="137" spans="1:21">
+      <c r="E135" s="40"/>
+    </row>
+    <row r="137" spans="1:22">
       <c r="B137" s="44" t="s">
         <v>266</v>
       </c>
       <c r="C137" s="51"/>
       <c r="D137" s="51"/>
-    </row>
-    <row r="138" spans="1:21">
+      <c r="E137" s="51"/>
+    </row>
+    <row r="138" spans="1:22">
       <c r="B138" s="42" t="s">
         <v>322</v>
       </c>
       <c r="C138" s="40"/>
       <c r="D138" s="40"/>
-    </row>
-    <row r="140" spans="1:21">
+      <c r="E138" s="40"/>
+    </row>
+    <row r="140" spans="1:22">
       <c r="A140" s="36" t="s">
         <v>334</v>
       </c>
@@ -11926,26 +12399,27 @@
       </c>
       <c r="C140" s="43"/>
       <c r="D140" s="43"/>
-      <c r="E140" s="43" t="s">
+      <c r="E140" s="43"/>
+      <c r="F140" s="43" t="s">
         <v>344</v>
       </c>
-      <c r="F140" s="21"/>
       <c r="G140" s="21"/>
-      <c r="H140" s="49"/>
-      <c r="I140" s="21"/>
+      <c r="H140" s="21"/>
+      <c r="I140" s="49"/>
       <c r="J140" s="21"/>
       <c r="K140" s="21"/>
-      <c r="L140" s="49"/>
+      <c r="L140" s="21"/>
       <c r="M140" s="49"/>
       <c r="N140" s="49"/>
-      <c r="P140" s="49"/>
+      <c r="O140" s="49"/>
       <c r="Q140" s="49"/>
       <c r="R140" s="49"/>
-      <c r="S140" s="38"/>
+      <c r="S140" s="49"/>
       <c r="T140" s="38"/>
-      <c r="U140" s="49"/>
-    </row>
-    <row r="141" spans="1:21">
+      <c r="U140" s="38"/>
+      <c r="V140" s="49"/>
+    </row>
+    <row r="141" spans="1:22">
       <c r="A141" s="36" t="s">
         <v>335</v>
       </c>
@@ -11954,76 +12428,82 @@
       </c>
       <c r="C141" s="49"/>
       <c r="D141" s="49"/>
-      <c r="E141" s="21" t="s">
+      <c r="E141" s="49"/>
+      <c r="F141" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="P141" s="38"/>
       <c r="Q141" s="38"/>
       <c r="R141" s="38"/>
       <c r="S141" s="38"/>
       <c r="T141" s="38"/>
       <c r="U141" s="38"/>
-    </row>
-    <row r="142" spans="1:21">
+      <c r="V141" s="38"/>
+    </row>
+    <row r="142" spans="1:22">
       <c r="B142" s="12" t="s">
         <v>338</v>
       </c>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
-      <c r="E142" s="12" t="s">
+      <c r="E142" s="12"/>
+      <c r="F142" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="P142" s="38"/>
       <c r="Q142" s="38"/>
       <c r="R142" s="38"/>
       <c r="S142" s="38"/>
       <c r="T142" s="38"/>
       <c r="U142" s="38"/>
-    </row>
-    <row r="143" spans="1:21">
+      <c r="V142" s="38"/>
+    </row>
+    <row r="143" spans="1:22">
       <c r="B143" s="12" t="s">
         <v>340</v>
       </c>
       <c r="C143" s="12"/>
       <c r="D143" s="12"/>
-      <c r="E143" s="12" t="s">
+      <c r="E143" s="12"/>
+      <c r="F143" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="144" spans="1:21">
+    <row r="144" spans="1:22">
       <c r="B144" s="12" t="s">
         <v>343</v>
       </c>
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
-      <c r="E144" s="12" t="s">
+      <c r="E144" s="12"/>
+      <c r="F144" s="12" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="145" spans="2:5">
+    <row r="145" spans="2:6">
       <c r="B145" s="12" t="s">
         <v>346</v>
       </c>
       <c r="C145" s="12"/>
       <c r="D145" s="12"/>
-      <c r="E145" s="12" t="s">
+      <c r="E145" s="12"/>
+      <c r="F145" s="12" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="146" spans="2:5">
+    <row r="146" spans="2:6">
       <c r="B146" s="12" t="s">
         <v>352</v>
       </c>
       <c r="C146" s="12"/>
       <c r="D146" s="12"/>
-      <c r="E146" s="12" t="s">
+      <c r="E146" s="12"/>
+      <c r="F146" s="12" t="s">
         <v>353</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12049,10 +12529,19 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="str">
+        <f>[1]!CAS_code("R290")</f>
+        <v>74-98-6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>